--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brittany/Documents/streamlit_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366E16E-35ED-7649-9B7D-E56D6918900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA545B7-3F9B-45DA-901B-079C0B3121B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="8" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-28020" yWindow="1560" windowWidth="24360" windowHeight="15330" activeTab="1" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ALL" sheetId="6" r:id="rId6"/>
     <sheet name="Generic" sheetId="7" r:id="rId7"/>
     <sheet name="Other" sheetId="9" r:id="rId8"/>
-    <sheet name="Panel" sheetId="10" r:id="rId9"/>
+    <sheet name="Genes" sheetId="10" r:id="rId9"/>
     <sheet name="Caveats" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>Gene</t>
   </si>
@@ -212,12 +212,6 @@
     <t>BCL2</t>
   </si>
   <si>
-    <t>In ~50% of cases progressing on treatment with BCL2 inhibitors (including venetoclax), the CLL/SLL cells acquire mutations in BCL2 (disrupting drug binding site) or amplification of 1q (involving MCL1) (WHO 5th edition).</t>
-  </si>
-  <si>
-    <t>Need to add from table</t>
-  </si>
-  <si>
     <t>BIRC3</t>
   </si>
   <si>
@@ -451,12 +445,379 @@
   <si>
     <t>Please note that as this assay cannot differentiate between germline and somatic variants, the germline origin of this variant cannot be ruled out.</t>
   </si>
+  <si>
+    <t>The most frequently mutated genes in CLL/SLL at the time of first treatment are NOTCH1 (10 to15%), ATM (10 to 15%), SF3B1 (10%), TP53 (5 to10%), and BIRC3 (5%) (WHO 5th edition).
+The frequency of BIRC3 disruption is low at diagnosis however, BIRC3 disruptions tend to accumulate among refractory CLL and emerge over time. Patients harbouring a BIRC3 disruption typically experience an aggressive disease course (Cortese, D. et al. (2014). Leukemia. 28:710_713 Strefford, JC. (2013). Leukemia. 27:2196_2199).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAF V600E mutation is seen in &gt;97% of HCL patients and is the key genetic lesion giving rise to key biological features in HCL (Tiacci, E. et al. (2017). J Clin Oncol. 35(9):1002_1010  Falini, B. et al. (2016). Blood. 128 (15): 1918_1927).
+BRAF is altered in 2% of non-Hodgkin lymphoma patients.
+BRAF/KRAS/NRAS mutations are seen in approximately 9% of CLL cases and could represent a distinct subset of CLL due to their frequent association with male gender, trisomy 12 and unmutated IGHV (Kanagal Shamanna, R. et al. (2015). Blood. 126(23):1730). </t>
+  </si>
+  <si>
+    <t>MAPK pathway gene mutations are present in the majority (&gt; 85%) of Langerhans cell histiocytosis patients. The BRAF p.V600E mutations are the most prevalent and carry prognostic significance, especially in MS-LCH. Emerging evidence shows that BRAF p.V600E is highly associated with an increased risk of relapse, development of MS-LCH and adverse clinical outcomes (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>BTK</t>
+  </si>
+  <si>
+    <t>The BTK G164D is a known resistance mutation.
+The BTK T316A is a known resistance mutation.
+The BTK V416L is a known resistance mutation (RL Wong et al, Leukemia 2024).
+The BTK A428D is a known resistance mutation, it may confer resistance to multiple types of BTK inhibitors, including covalent inhibitors, non-covalent inhibitors, and potentially other BTK degraders like NX-2127 (RL Wong et al, Leukemia 2024).
+The BTK M437R is a known resistance mutation (RL Wong et al, Leukemia 2024).
+The BTK T474I is a known resistance mutation developed in patients treated with pirtobrutinib (RL Wong et al, Leukemia 2024).
+The BTK T474S is a known resistance mutation.
+The BTK C481F is a known resistance mutation.
+The BTK C481R is a known resistance mutation.
+The BTK C481S is a known resistance mutation, developed in patients treated with ibrutinib/acalabrutinib (RL Wong et al, Leukemia 2024).
+The BTK C481Y is a known resistance mutation.
+The BTK L528W is a known resistance mutation (RL Wong et al, Leukemia 2024).
+The BTK R544S mutation is likely oncogenic.
+For information only (some comments may be used to complement the report according to the type of mutation detected): 
+BTK variants V416L, A428D, M437R, T474I, and L528W are kinase domain mutations seen in CLL progressing on non non-covalent/reversible BTK inhibitors.   (Wang et al NEJM 2022).
+This is an important resistance mutation to report:
+BTK Leu528Trp has been seen in patients progressing on Zanubrutinib and may predict resistance to non non-covalent/reversible BTK inhibitors such as Pirtobrutinib (Blombery, P. et al. (2022). Blood Adv. (20):5589_5592).
+BTK C481S mutation has been identified in patients with chronic lymphocytic leukaemia following disease progression on the BTK inhibitor ibrutinib (Skånland, SS &amp; Mato, AR. (2021). Blood Adv. 5(1):334_343). The BTK C481 mutants are not exclusively seen during ibrutinib treatment, they are also found in patients treated with other irreversible BTKi that target C481, namely acalabrutinib and zanubrutinib (Front Immunol. (10 June 2021)).
+A recent study by Woyach et al. on the samples from relapsed/refractory CLL patients in ELEVATE-RR (NCT02477696) showed BTK C481S mutations as the most common mutation in both ibrutinib and also acalabrutinib treated groups. T474I and the novel E41V mutation occurred with acalabrutinib, while neither mutation occurred with ibrutinib. L528W and A428D co-mutations presented in one ibrutinib-treated patient (Woyach et al. Blood 2024) 
+The presence of a BTK mutation in patients still on ibrutinib was shown to confer a greater likelihood of subsequent CLL progression by FILO group study. Blood (2019) 134 (7): 641_644.</t>
+  </si>
+  <si>
+    <t>Not copied whole comment</t>
+  </si>
+  <si>
+    <t>CALR</t>
+  </si>
+  <si>
+    <t>The presence of a pathogenic variant within CALR exon 9 is consistent with a myeloproliferative neoplasm. Pathogenic variants within CALR exon 9 have been reported to be present in approximately 15 to 30% of patients with essential thrombocythaemia and approximately 25 to 35% of patients with primary myelofibrosis.
+While frameshift mutations in exon 9 of CALR are generally considered oncogenic, in frame insertions or deletions in exon 9 of CALR are seen at high levels in germline populations of healthy individuals and are generally considered to be benign polymorphisms. In cases with confirmed MPN, they often occur with pathogenic somatic variants affecting the JAK/STAT pathway (Szuber N, et al. (2016). J Clin Pathol, Wong R, et al. (2018). Blood). Please note that as this assay cannot differentiate between germline and somatic variants, the germline origin of this variant cannot be ruled out.</t>
+  </si>
+  <si>
+    <t>CBFB</t>
+  </si>
+  <si>
+    <t>A novel subtype of AML characterized by recurrent in frame insertion mutations [p.(Asp87delinsGlyAspSerTyr); GDSY] in CBFB, leading to a GDXY amino acid sequence change at position D87. In these patients’ recurrent mutations have been reported in BCORL1, FLT3, NRAS, ETV6, KDM6A, and NF1. FLT3 tyrosine kinase domain (TKD) mutations were most common, although internal tandem duplications and mutations outside the TKD have also been observed. CBFB GDXY mutations have been observed in both children and adults but were enriched in adolescent and young adult age groups (Blood (2023) 141 (7): 800_805).</t>
+  </si>
+  <si>
+    <t>CBL</t>
+  </si>
+  <si>
+    <t>In ~50% of cases progressing on treatment with BCL2 inhibitors (including venetoclax), the CLL/SLL cells acquire mutations in BCL2 (disrupting drug binding site) or amplification of 1q (involving MCL1) (WHO 5th edition).
+Multiple BCL2 mutations cooccurring with Gly101Val emerge in CLL progression on venetoclax (Blombery, P. et al. (2020). Blood. 135 (10): 773_777).</t>
+  </si>
+  <si>
+    <t>More to add from table</t>
+  </si>
+  <si>
+    <t>CBL is commonly mutated across myeloid malignancies, with the greatest enrichment of mutations occurring in CMML (5 to 13% of patients) and JMML (Lee SC, et al. (2017). Blood. 129(15):2046_2048).  
+While JAK2, CALR, and MPL mutations are considered driver events, mutations in other genes, particularly TET2, ASXL1, and DNMT3A, are found in over half of patients with MPN. Mutations affecting splicing regulators (SRSF2, SF3B1, U2AF1, ZRSR2) and other regulators of chromatin structure, epigenetic functions, and cellular signalling (e.g., EZH2, IDH1, IDH2, CBL, KRAS, NRAS, STAG2, TP53) are less common. These additional mutations are more frequent in PMF and advanced disease compared to PV and ET, and some are known to correlate with a poorer prognostic risk (e.g., EZH2, IDH1, IDH2, SRSF2, U2AF1, and ASXL1 mutations in PMF). Mutation of TP53 is associated with leukaemic transformation and identifies a disease category with a particularly unfavourable outlook. (WHO 5th edition).
+JMML is associated in more than 90% of cases with mutations in RAS genes (NRAS 15 to 25%, KRAS 15 to 20%, rarely RRAS, RRAS2 or RIT1) or in regulators of the RAS pathway (PTPN11 35 to 40% NF1 5 to 10% or CBL 12 to 15%). Presence of one of the five canonical RAS pathway mutations (KRAS, NRAS, PTPN11, NF1, CBL) facilitates the diagnosis. These mutations can be somatically acquired (55 to 65% of cases) or inherited in the context of RASopathies (20 to 30% of cases). It is therefore strongly recommended that genetic testing also be performed on non-_haematopoietic tissue. Secondary events are most commonly detected in SETBP1, ASXL1, EZH2, JAK3, SH2B3, or in additional RAS pathway genes. These secondary events are exceedingly rare in CBL associated JMML.</t>
+  </si>
+  <si>
+    <t>CCND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCND3 is mutated in 38% of sporadic Burkitt's lymphoma.
+CCND3 Q276* has been previously reported in with diffuse large B cell lymphoma NOS, B cell lymphoblastic leukaemia/lymphoma, marginal zone lymphoma, and angioimmunoblastic T cell lymphoma having the greatest prevalence. This variant is mutated in 38% of sporadic Burkitt's lymphoma. Please interpret the result along with morphology and other clinicopathological findings.
+Recurrent mutations and copy number variations (CNVs) have been reported with variable frequency in the NOTCH1, NOTCH2, MYD88, TP53, MAP2K1, CCND3, BCOR, ARID1A, and SYK genes, amongst others in Splenic diffuse red pulp small B cell lymphoma (SDRPL) however no molecular test is pathognomonic of SDRPL. </t>
+  </si>
+  <si>
+    <t>CEBPa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CEBPα is altered in 5% of AML patients
+CEBPα is altered in 8% of secondary AML patients
+CEBPα is altered in 8% of therapy related AML patients
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N-terminal out of frame and C-terminal inframe/out of frame/pathogenic missense bZIP combined (Most mutations initiate a frameshift within the N terminal, followed by the acquisition of in frame C terminal mutations, which trigger the development of AML):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The CEBPA N terminal out of frame insertion/deletion variant c.xxxxx p.(xxxx) and C terminal in frame insertion/deletion variant were detected at variant allele frequencies of XX% and XX%, respectively.
+Biallelic CEBPA mutations are associated with favourable outcomes in AML (however, the combination with FLT3 ITD is adverse). Among cases with biallelic CEBPA mutations, approximately 5 to 10% have a germline N terminal mutation (WHO 5th edition). Please note that this assay cannot exclude the germline origin for the CEBPA variants. Referral to clinical genetics service for family history and further assessment is recommended.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*Educational: Please always check for CSF3R mutation in a patient with biallelic or only bzip mutation as according to Tarlok et l.xxx  co-occurring CSF3R and CEBPA mutations are associated with a high RR that nullifies the favourable prognostic impact of CEBPA mutations (Blood (2021) 138 (13): 1137–1147.).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>In frame or out of frame or oncogenic missense bZIP only (monoallelic or biallelic):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The CEBPA pathogenic/likely pathogenic variant c.xxxxx p.(xxxx) at XX% VAF was detected by NGS .(For missense variant please check the impact on the protein and its report in the literature)
+The CEBPA variant c.xxxxx p.(xxxx) lies within the basic leucine zipper (bZIP) region of the gene. AML with in frame bZIP CEBPA mutations is an ICC disease category associated with a favourable prognosis (Blood. (2022). 140(11):1200_28).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N-terminal Frameshift and loss of CEBPA gene on CNV plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The loss of one allele and copy number loss of CEBPA as observed on the CNV plot suggests a CEBPA biallelic mutation as this leads to no wild type CEBPA however this is not the classic biallelic mutation when N-terminal frameshift variant is detected along with C-terminal in-frame variant.
+If suspected germline:
+Germline CEBPA mutations are estimated to occur in 10% of all CEBPA mutated AML cases. Please note that this assay cannot exclude the germline origin for the CEBPA variant. Referral to clinical genetics service for family history and further assessment is recommended.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Biallelic with potential germline:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Among cases with biallelic CEBPA mutations, approximately 5 to 10% have a germline N terminal mutation (WHO 5th edition). Please note that this assay cannot exclude the germline origin for the CEBPA variants. Referral to clinical genetics service for family history and further assessment is recommended.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not in bZIP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Please note the CEBPA mutation does not lie in the basic leucine zipper (bZIP) region of the gene and may not have the same clinical significance as AML with in_-frame bZIP CEBPA mutations. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not typical biallelic:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Please note the CEBPA mutation pattern for this patient is not typical of a biallelic CEBPA mutant AML and may not have the same clinical significance.</t>
+    </r>
+  </si>
+  <si>
+    <t>CEBPA is altered in 1.5% of myelodysplastic syndromes patients.</t>
+  </si>
+  <si>
+    <r>
+      <t>CEBPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is altered in 4% of refractory anaemia with excess blasts patients.</t>
+    </r>
+  </si>
+  <si>
+    <t>CHECK2</t>
+  </si>
+  <si>
+    <t>*To check with Terri before reporting*
+The CHEK2 pathogenic/likely pathogenic missense/nonsense/frameshift variant c.xxxxx p.(xxxx) at XX% VAF was detected by NGS.
+Please note, this assay cannot rule out the potential germline origin of the CHEK2 variant. There is no clear link between this variant and association between this variant and the haematological clinical condition under investigation however this variant is associated with susceptibility to other types of cancer. Referral to clinical genetics service for further assessment is recommended.
+The following is recommendation to the reporting scientist and is not a quick text
+•	Please note that germline CHEK2 variants, together with dysregulation of the JAK2‐STAT signalling pathway through the acquisition of the JAK2 p.V617F, could potentially contribute to the susceptibility both to ET and PV, thus demonstrating a strong impact of this gene on the carcinogenesis of MPNs in general (Hanna Janiszewska et al, BJHaem 2015).
+•	CHEK2 somatic or germline mutations have been reported as therapeutically significant marker for Prostate cancer, currently the clinical significance for haematoncology is unknown.
+•	If a pathogenic variant was identified with suspicion of being germline, please check with the clinical genetics service or discuss with other clinical scientist in the lab before adding it to the report)</t>
+  </si>
+  <si>
+    <t>CSF3R</t>
+  </si>
+  <si>
+    <t>CSF3R is altered in 1% of acute myeloid leukaemia patients.</t>
+  </si>
+  <si>
+    <t>CSF3R is altered in 25% of atypical CML, BCR::ABL1 negative patients.
+A median of four variants of known significance are observed in CNL. Mutations associated with clonal haematopoiesis are common. Nearly all cases exhibit mutation in ASXL1 (70 to 80%), TET2 (10 to 20%), and/or DNMT3A (5 to 20%). Other genes frequently mutated impact proliferative signalling (e.g. CSF3R, CBL, JAK2, NRAS, PTPN11), splicing machinery (e.g. SRSF2, U2AF1, U2AF2, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). The overall mutational profile of CNL is quite similar to chronic myelomonocytic leukaemia, MDS/MPN N, and MDS/MPN NOS, with the exception of CSF3R mutations which are more common in CNL (&gt;60% in CNL vs. &lt;20% in MDS/MPN N). Hence, although the above mutations may be helpful for confirming a clonal neoplasm, morphologic criteria are important for distinguishing these diagnoses. Coexisting ASXL1 mutation is associated with a worse prognosis (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>CSF3R is altered in 0.8% of myelodysplastic syndrome with excess blasts 2 patients.
+*For educational purpose: 
+•	CSF3R mutation status should be evaluated for frameshift status because truncating mutations occurring outside of the proximal membrane region have shown sensitivity to dasatinib (Blood (2022) 140 (21): 2228_2247.).
+•	Sequence variants that were identified included membrane proximal mutations (T615A and T618I) and a number of different frameshift or nonsense mutations that truncate the cytoplasmic tail of CSF3R (D771fs, S783fs, Y752X, and W791X). Similar mutations that truncate the CSF3R cytoplasmic domain have been described in patients with congenital neutropenia that progresses to AML after long term treatment with granulocyte colony stimulating factor (G CSF).
+•	Although CSF3R variants are most prevalent in CNL, they are not specific to this diagnosis and can also be seen in other myeloid disorders, particularly in aCML) and CMML (Blood (2022) 140 (21): 2228_2247.).
+•	CSF3R truncation mutations accelerate tumour formation in the presence of other genetic modifiers but alone are incapable of causing AML (Exp Hematol 2011,39:1136_43.).</t>
+  </si>
+  <si>
+    <t>CXCR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CXCR4 S338* mutation is known to be oncogenic.
+The CXCR4 S330_S352fs/ G332_S352trunc/ R334* mutation is likely oncogenic.
+Frameshift variants in CXCR4
+The greatest prevalence of CXCR4 frameshift variants has been reported in patients with lymphoplasmacytic lymphoma, diffuse large B cell lymphoma, not otherwise specified, B cell lymphoblastic leukaemia/lymphoma, chronic lymphocytic leukaemia/small lymphocytic lymphoma, and follicular lymphoma (My Cance rGenome). Please correlate with other clinical/pathological findings for differential diagnosis.
+In 93 to 97% of LPL/WM cases, the driver mutation is MYD88 p.L265P. The next most common somatic mutations are nonsense and frameshift mutations of CXCR4 that affect its C terminal region. These CXCR4 mutations are seen in as many as 40% of patients with LPL/WM, mostly concurrently with MYD88 mutations (WHO 5th ed). CXCR4 mutations are essentially unique to WM, with only a few cases of marginal zone lymphoma (MZL) and activated B cell diffuse large B cell lymphoma reported so far. CXCR4 mutations are associated with high serum IgM, symptomatic hyperviscosity, von Willebrand factor deficiency, and earlier time to treatment. These CXCR4 activating mutations also confer resistance to ibrutinib therapy. The subclonal nature of CXCR4 mutations, and their paucity in IgM MGUS suggest that they are acquired after MYD88 mutation (WHO 5th ed). Please correlate with other clinical/pathological findings for differential diagnosis.  </t>
+  </si>
+  <si>
+    <t>CARD11</t>
+  </si>
+  <si>
+    <t>The t(11,14)(q13,q32) leading to IGH::CCND1 rearrangement is the genetic hallmark of MCL, present in &gt;= 95% of cases. Next generation sequencing studies have shown that MCL displays a complex mutational landscape. ATM is most frequently mutated (41 to 61% of cases), followed by mutations of TP53 (14 to 31%), CCND1 (14 to 34%), KMT2D (12 to 23%), NSD2 (10 to 13%), SMARCA4 (8%), UBR5 (7 to 18%), BIRC3 (6 to 10%), NOTCH1 (5 to14%), S1PR1 (3 to 15%), and CARD11 (3 to 15%). These alterations involve genes encoding components of key signalling pathways in MCL pathogenesis, including, but not limited to, cell cycle regulation (CCND1, RB), DNA damage response (ATM, TP53), cell proliferation and apoptosis (BCL2, MYC), B cell receptor/NFkB signalling (CARD11/BIRC3/MAP3K14), and epigenetic modifiers (KMTD2D, NSD2, SMARCA4). MYC translocations and TP53 mutations are often associated with disease progression. TP53 mutational analysis may help to define a high risk MCL cohort (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>CREBBP</t>
+  </si>
+  <si>
+    <t>The evolution of FL is accompanied by gene mutations that occur over time. The most frequent mutations are found in KMT2D and CREBBP and represent early driver events and induce loss of function of chromatin modifiers. Epigenetic dysregulation comprises gain of function mutations of EZH2 and, less frequently, mutations affecting ARID1A, MEF2B, and KMT2C (WHO 5th edition). However, Next generation sequencing is currently not recommended in the routine work up of FL, since the mutation profile of FL shares considerable overlap with other lymphoma entities.</t>
+  </si>
+  <si>
+    <t>CUX1</t>
+  </si>
+  <si>
+    <t>CUX1 mutations are more common in myelomonocytic diseases such as CMML, MDS/MPN and high risk MDS (Supper, E. et al. (2021). Nat Commun. 12, Article number: 2482).
+CUX1, is a haploinsufficient tumour suppressor gene encoded on 7q22. CUX1 loss of function mutations are recurrent in myeloid malignancies and are an independent prognostic indicator of poor outcome (N Engl J Med. 2014;371:2488_98. N Engl J Med. 2017;376:536_47. Nat Genet.2014;46:33_8).  Oncogenic RAS pathway mutations in del7/del(7q) myeloid malignancies are enriched in cases with deletions spanning CUX1 (Br J Haematol. 2014;166:550_6). RAS pathway alterations observed in CUX1 deleted myeloid malignancies include gain of function mutations of NRAS, KRAS, PTPN11, and RIT1, and deletion or loss of function mutations of NF1 and CBL (Br J Haematol. 2014;166:550_6).</t>
+  </si>
+  <si>
+    <t>DDX41</t>
+  </si>
+  <si>
+    <t>Myeloid neoplasms with germ line DDX41 mutation is a WHO disease category. DDX41 germline mutation is likely to contribute to the aetiology of 5% of all patients with AML, making it the most common predisposing event in AML.
+Please note that this assay cannot exclude the germline origin for the DDX41 c.xxx p.(xxx) variant. Referral to clinical genetics service for family history and further assessment is recommended.</t>
+  </si>
+  <si>
+    <t>MDS with DDX41 mutation defines a unique subtype that is distinct from other myeloid neoplasms. Mutations in DDX41 have been associated with high blast percentages and risk of AML transformation, but conversely favourable OS, in particular in MDS with excess blasts. Both germline and somatic DDX41 mutations have been reported in MDS (NEJM Evid 2022 1 (7)). A recent large study by Makishima et al demonstrated that patients with MDS along with a DDX41 mutation rapidly progressed to AML, which was however, confined to those having truncating variants. According to this study the outcomes of the MDS patients with DDX41 mutation were not affected by the conventional risk stratifications, including the revised/molecular International Prognostic Scoring System. Disease progression of patients with DDX41 truncating variants tends to be stable, keeping relatively low blast counts, even after leukaemia progression. DDX41 mutated cases in this study had a distinct co-mutation pattern, compared with DDX41 WT cases, characterised by a higher frequency of CUX1 mutations and lower frequencies of many of other mutations commonly seen in WT cases, regardless of disease subtype (Makishima, H. et al. (2023). Blood. 141(5):534_549).</t>
+  </si>
+  <si>
+    <t>DNMT3A</t>
+  </si>
+  <si>
+    <t>DNMT3A Mutations are present in 15% of all MDS patients. 
+DNMT3A is altered in 17% of therapy related MDS patients.
+DNMT3A mutations do not lead to cytopenias per se (Buscarlet, M. et al. (2017). Blood. 130(6):753_762) and while they are common in myelodysplastic syndromes, they are also observed in a subset of healthy, older individuals with clonal haematopoiesis.
+Oncogenic mutations (oncokb): R635W / S714C / R736H / S770W / R771P / M880V / R882C / R882H / P904L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITL is characterized by high frequencies of overlapping mutations in epigenetic modifiers, including TET2, IDH2, and DNMT3A (Odejide, O. et al. (2014). Blood. 123(9):1293_6).
+DNMT3A is recurrently mutated in various haematological malignancies, however, some DNMT3A alterations can be age related or present in other neoplasms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNMT3A mutations occur in 15% of MF patients, 7% of PV patients, and 3% of ET patients. 
+DNMT3A Mutations are present in 8% of all chronic CMML patients. 
+DNMT3A is recurrently mutated in various haematological malignancies, however, some DNMT3A alterations can be age related or present in other neoplasms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the incidence of DNMT3A mutations ranges from 12 to 35%, with mutations more commonly found in cytogenetically normal AML.
+Multiple DNMT3A mutations are more common in AML compared to other myeloid neoplasms. Cases with multiple DNMT3A mutations are more likely to also have IDH2 and ETV6 mutations. The recent study by Kawashima et al identified biallelic DNMT3A impairment as an independent adverse factor for survival in AML (Kawashima et al. Journal of Hematology &amp; Oncology (2024) 17:87). This study also showed from longitudinal analysis that biallelic DNMT3A mutant clones often persisted or expanded in relapsed or transformed cases.
+DNMT3A is recurrently mutated in various haematological malignancies, however, some DNMT3A alterations can be age related or present in other neoplasms. </t>
+  </si>
+  <si>
+    <t>DIS3</t>
+  </si>
+  <si>
+    <t>DIS3 mutations have been reported in 11% of multiple myeloma patients (Boyle, EM. et al. (2020) Clin Cancer Res. 26(10):2422_2432).</t>
+  </si>
+  <si>
+    <t>EP300</t>
+  </si>
+  <si>
+    <t>EP300 is altered in 14% of follicular lymphoma (part of M7 FLIPI clinico genetic score) and 9% of diffuse large B cell lymphoma patients.</t>
+  </si>
+  <si>
+    <t>ETNK1</t>
+  </si>
+  <si>
+    <t>Recurrent ETNK1 mutations have been reported in 7-13% of patients who have atypical chronic myeloid leukemia (aCML; recently renamed myelodysplastic/ myeloproliferative neoplasm ([MDS/MPN)] with neutrophilia in the fifth edition of the WHO classification), in 3-14% of those who have CMML, and in 20% of those who have systemic mastocytosis with eosinophilia.</t>
+  </si>
+  <si>
+    <t>ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
+Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,6 +874,20 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -880,15 +1255,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B9:B11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="123.7109375" customWidth="1"/>
+    <col min="2" max="2" width="123.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -907,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="285" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -915,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -923,12 +1298,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -944,58 +1367,58 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1005,15 +1428,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="124.7109375" customWidth="1"/>
+    <col min="2" max="2" width="124.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1040,12 +1463,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1055,18 +1518,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272D003-0FFA-4F1D-B7A9-9555EFF0D62B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="96.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1106,15 +1569,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="270" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="270" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1127,12 +1635,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="120.42578125" customWidth="1"/>
+    <col min="2" max="2" width="120.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1660,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,18 +1674,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD634E30-2FF4-4CAE-85E8-877093FDD5DC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B7:B16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="122.140625" customWidth="1"/>
+    <col min="2" max="2" width="122.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1188,20 +1701,106 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1217,9 +1816,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="112.42578125" customWidth="1"/>
+    <col min="2" max="2" width="112.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1858,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1276,19 +1875,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACEB0-1D23-4D73-A7AF-61BC0573E509}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="117.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="117.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1296,12 +1895,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1313,109 +1945,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87C1734-60B9-45D3-B44E-4F4964B3FF0F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA545B7-3F9B-45DA-901B-079C0B3121B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB145A7-42E9-418A-AB70-252B9C94359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="1560" windowWidth="24360" windowHeight="15330" activeTab="1" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="1035" yWindow="600" windowWidth="24360" windowHeight="14370" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Other" sheetId="9" r:id="rId8"/>
     <sheet name="Genes" sheetId="10" r:id="rId9"/>
     <sheet name="Caveats" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
   <si>
     <t>Gene</t>
   </si>
@@ -811,6 +812,492 @@
   <si>
     <t>ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
 Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> JAK2, CALR, MPL, CSF3R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> KIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genes.</t>
+    </r>
+  </si>
+  <si>
+    <t>MPN/MDS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBL, CEBPA, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3 (tyrosine kinase domain), GATA1, GATA2, GNB1, IDH1, IDH2, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RUNX1, SETBP1, SF1, SF3B1, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, U2AF1, WT1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ZRSR2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ABL1, ANKRD26, ASXL1, BCL2, CEBPA, CUX1, DDX41, ETV6, FBXW7, FLT3 (tyrosine kinase domain), GATA1, GATA2, HRAS, IDH1, IDH2, IKZF1, KIT, KRAS,KMT2A, MPL, MYC, NF1, NOTCH1, NPM1,  NRAS,  PAX5, PHF6, PPM1D, PTEN, RAD21, RUNX1, SF1, SMC3, SRSF2, STAG2, TP53, WT1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ZRSR2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.</t>
+    </r>
+  </si>
+  <si>
+    <t>ALL/AML</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ABL1, ETV6, FBXW7, HRAS, IKZF1, KRAS, NRAS, NOTCH1, PAX5, PTEN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TP53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">BRAF, KRAS, NRAS, TP53, DIS3, FAM46C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> IRF4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ATM, BCL2, BIRC3, BTK, NOTCH1, PLCG2, SF3B1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TP53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ATM, ARID1A, BCL2, BRAF, BTK, CARD11, CCND3, CD79B, CREBBP, CXCR4, EP300, EZH2, FOXO1, KLF2, MAP2K1, MEF2B, MYD88, NOTCH1, NOTCH2, PLCG2, NRAS, KRAS, HRAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TP53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>No pathogenic/likely pathogenic variants were detected in</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CARD11, DNMT3A, IDH2, IRF4, RHOA, STAT3, STAT5B, TET2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TP53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ARAF, BRAF, ERBB3, HRAS, KRAS, NRAS, MAP2K1, MAP3K1, PIK3CA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> PIK3CD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Genes included in the HaemOnc panel are </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ABCA1, ABL1, ACD, AKT1, ANKRD26, ARAF, ARID1A, ASXL1, ATM, ATR, ATRX, BCL11B, BCL2, BCL6, BCOR, BCORL1, BCR, BIRC3, BOD1L1, BRAF, BRCA1, BRCA2, BRCC3, BTK, CALR, CARD11, CBL, CBLB, CCND1, CCND2, CCND3, CD274, CD79B, CDKN2A, CDKN2B, CEBPA, CHEK2, CREBBP, CSF3R, CSNK1A1, CTC1, CTCF, CUX1, CXCR4, DCLRE1C, DDX41, DIS3, DKC1, DNAJC21, DNM2, DNMT3A, DNMT3B, DPYD, DUSP22, EED, ELANE, EP300, ERBB3, ETNK1, ETV6, EZH2, FAM46C, FANCL, FBXW7, FLT3, FOXO1, G6PC3, GATA1, GATA2, GFI1, GNAS, GNB1, GPRC5A, HAX1, HRAS, IDH1, IDH2, IKZF1, IL7R, IRF4,  JAGN1, JAK1, JAK2, JAK3, KDM5A, KDM6A, KIT, KLF2, KMT2A, KMT2C, KMT2D, KMT2E, KRAS, LAMB4, LMO1, LMO2, MAP2K1, MAP3K1, MECOM, MEF2B, MET, MPL, MYB, MYC, MYCN, MYD88, NCOR1, NCOR2, NF1, NF2, NFE2, NOTCH1, NOTCH2, NPM1, NRAS, NRD1, NSD1, NT5C2, NTRK1, NTRK2, NTRK3, NUDT15, NUP98, PALB2, PAX5, PDGFRA, PDS5B, PHF6, PIGA, PIK3CA, PIK3CD, PIK3R1, PLCG2, PMS1, PMS2, PPM1D, PRPF8, PTEN, PTPN11, PTPRT, RAD21, RAD50, RAD51C, RAD51D, RHOA, RIT1, RPL5, RPL10, RUNX1, SAMD9, SAMD9L, SAMHD1, SBDS, SETBP1, SF1, SF3B1, SH2B3, SMC1A, SMC3, SRSF2, STAG2, STAT3, STAT5B, SUZ12, TAL1, TERC, TERT, TET1, TET2, TINF2, TP53, TPMT, TRAF2, U2AF1, U2AF2, USP7, VPS45, WAS, WT1, XPO1, XRCC2, ZRSR2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ANKRD26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ASXL1, ABL1, BCL2, BCOR, BCORL1, CBL, CSF3R, CUX1, CEBPA, DDX41, DNMT3A, ETNK1, ETV6, EZH2,FLT3 (tyrosine kinase domain), GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, CALR, KIT, KMT2A, KRAS, MPL, MYC, NFE2, NF1, NRAS, NPM1, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RUNX1, STAT3, STAT5B, SETBP1, SF1, SF3B1, SMC3, STAG2, SH2B3, SRSF2, TET2, TP53, U2AF1, WT1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ZRSR2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>genes.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -910,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -920,6 +1407,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1364,7 +1866,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1426,11 +1928,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AC4A2-C3A3-47B0-98AB-490EB46276E7}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB145A7-42E9-418A-AB70-252B9C94359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CFDDF-4B30-4FD2-935F-E3601BFA5FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="600" windowWidth="24360" windowHeight="14370" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-27540" yWindow="1335" windowWidth="27525" windowHeight="15600" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Other" sheetId="9" r:id="rId8"/>
     <sheet name="Genes" sheetId="10" r:id="rId9"/>
     <sheet name="Caveats" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
+    <sheet name="Panel" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
   <si>
     <t>Gene</t>
   </si>
@@ -1930,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AC4A2-C3A3-47B0-98AB-490EB46276E7}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1942,99 +1942,107 @@
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="114" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>118</v>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="114" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>125</v>
       </c>
     </row>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F5DF70-73CB-40C7-8CDD-844B9F1BA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F24E6-1F58-49E2-9992-8EB0342F46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="600" windowWidth="25710" windowHeight="16530" activeTab="2" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-27480" yWindow="720" windowWidth="25710" windowHeight="14595" activeTab="2" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="358">
   <si>
     <t>Gene</t>
   </si>
@@ -4004,16 +4004,62 @@
     <t>ZRSR2</t>
   </si>
   <si>
-    <t>ZRSR2 mutations were reported in 9.1% of the AML patients (Yacout et al. Leukemia 2024).</t>
-  </si>
-  <si>
-    <t>ZRSR2 mutations were reported in 23.8% of the CCUS patients (Yacout et al. Leukemia 2024).</t>
+    <t>Clonal hematopoiesis of indeterminate potential (CHIP) is a premalignant state characterized by myeloid malignancy driver mutations with a variant allele fraction ≥0.02 in individuals without blood count abnormalities. CHIP increases in prevalence with age, occurring in ~10% of individuals aged &gt;70 years (Blood. 2022;140(11):1200-1228.). The most frequent mutated genes in CHIP are DNMT3A, TET2, ASXL1, TP53, PPM1D, SRSF2, GNB1, SF3B1, JAK2, CBL, GNAS, NF1, RUNX1, BCORL1, BRCC3, CUX1, ASXL2, BCOR, KRAS, PRPF8, SMC1A, IDH2, KDM6A, SETD2, CALR (Nature Medicine, VOL 27, November 2021, 1921–1927).</t>
+  </si>
+  <si>
+    <t>GNAS</t>
+  </si>
+  <si>
+    <t>BCORL1</t>
+  </si>
+  <si>
+    <t>BRCC3</t>
+  </si>
+  <si>
+    <t>ASXL2</t>
+  </si>
+  <si>
+    <t>SMC1A</t>
+  </si>
+  <si>
+    <t>KDM6A</t>
+  </si>
+  <si>
+    <t>SETD2</t>
+  </si>
+  <si>
+    <t>MDS Patients with comutation patterns in other genes such as ASXL1, BCOR, BCORL1, EZH2, NRAS, RUNX1, STAG2 or U2AF1 have worse clinical outcomes (Blood. 2025 May 1;145(18):1987-2001) (NEJM Evid 2022). 
+Myelodysplastic neoplasm with low blasts and SF3B1 mutation: Identification of typically heterozygous SF3B1 mutations (~50% affecting codon 700, other hotspots at codons 666, 662, 622 and 625), usually at high variant allelic frequency (median VAF 35 to 43%), is required for diagnosis. SF3B1 mutation is detected in 90% of MDS cases with &gt;= 5% of ring sideroblasts. The presence of SF3B1 variant at a VAF under 5% does not qualify for MDS SF3B1. Certain comutations have been correlated with adverse impact in MDS SF3B1. Initial data implicated TP53, RUNX1, EZH2 and FLT3. More recent data suggests that the presence of co mutations involving BCOR, BCORL1, NRAS, RUNX1, SRSF2 or STAG2, are associated with significantly different outcomes in comparison to mutation in SF3B1 alone. Most cases of MDS SF3B1 have a normal karyotype or abnormalities involving a single chromosome. Cases with 5q deletion, monosomy 7/7q deletion, or complex karyotype are excluded albeit, additional studies are needed to support this premise, particularly the impact of 5q deletion in rare cases of MDS with mutant SF3B1 (WHO 5th edition). MDS SF3B1 has the best outcome among MDS types. Most patients are stratified into lower risk groups in the Revised International Prognostic Scoring System. MDS with low blasts, ring sideroblasts and wildtype SF3B1 has a less favourable overall survival and leukaemia free survival. The favourable outcome associated with SF3B1 mutation is lost as soon as an excess of blasts is observed. Additional mutations in epigenetic regulators, including DNMT3A, TET2 or ASXL1 do not affect the disease outcome. In contrast, mutations in TP53, RUNX1, EZH2 mutations are associated with a poorer outcome (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRSR2 mutations were reported in 9.1% of the AML patients (Yacout et al. Leukemia 2024).
+Mutations in MDS_related genes (ASXL1, BCOR, EZH2, RUNX1, SF3B1, SRSF2, STAG2, U2AF1, ZRSR2) along with MDS_related cytogenetic abnormalities, and a history of MDS or MDS/MPN, are used to classify patients as having AML with myelodysplasia_related changes now called AML, myelodysplasia related (AML MR). These mutations confer an adverse prognosis even if they occur in de novo AML (WHO 5th Edition and ELN guidelines 2022). The other proposed mutated genes for secondary AML type mutations (sAML) are RUNX1, SETBP1, and KMT2A_PTD mutations (Nature Communications | ( 2022) 13:4622).
+Co-mutations:
+The most common co_occuring variants with ZRSR2 is in TET2 (51% of patients) followed by ASXL1 (32%) and JAK2 (19%) (Yacout et al. Leukemia 2024).
+*Class-defining genes are specific genes whose mutations are used to define particular molecular classes of AML and include: SRSF2, SF3B1, U2AF1, ZRSR2, ASXL1, STAG2, EZH2, PHF6, RUNX1, SETBP1, BCOR, CUX1, NF1 and KMT2A-PTD.
+Tazi, Y., Arango-Ossa, J.E., Zhou, Y. et al. Unified classification and risk-stratification in Acute Myeloid Leukemia. Nat Commun 13, 4622 (2022). https://doi.org/10.1038/s41467-022-32103-8
+AML with KMT2A rearrangement
+As compared to AML with normal karyotype, the presence of KMT2A rearrangement is associated with a lower mutation burden. Adult patients predominantly have mutations in genes encoding the RAS pathway (NRAS, KRAS and PTPN11). FLT3 tyrosine kinase domain mutations (TKD), as well as mutations in RUNX1, TET2, PLCG2 and ZRSR2, have also been described. Mutations in NRAS, KRAS, PTPN11 and FLT3 TKD often occur at low (&lt;20%) variant allele fractions, indicating a subclonal nature. Mutations in DNMT3A, NPM1, CEBPA and FLT3 ITD are uncommon (WHO 5th edition). </t>
   </si>
   <si>
     <t>ZRSR2 mutations were reported in 20.1% of the MPN patients (Yacout et al. Leukemia 2024). ZRSR2 mutations have been reported in 5.8% of primary MF, 6.9% of secondary MF, 0.7% of ET and 1.3% of PV patients (Cancers (Basel). 2020 Aug, 12(8): 2216.)
 While JAK2, CALR, and MPL mutations are considered driver events, mutations in other genes, particularly TET2, ASXL1, and DNMT3A, are found in over half of patients with MPN. Mutations affecting splicing regulators (SRSF2, SF3B1, U2AF1, ZRSR2) and other regulators of chromatin structure, epigenetic functions, and cellular signalling (e.g., EZH2, IDH1, IDH2, CBL, KRAS, NRAS, STAG2, TP53) are less common. These additional mutations are more frequent in PMF and advanced disease compared to PV and ET, and some are known to correlate with a poorer prognostic risk (e.g., EZH2, IDH1, IDH2, SRSF2, U2AF1, and ASXL1 mutations in PMF). Mutation of TP53 is associated with leukaemic transformation and identifies a disease category with a particularly unfavourable outlook. (WHO 5th edition).
 ZRSR2 mutations were reported in 14% of the MPN/MDS patients (Yacout et al. Leukemia 2024).
-The most common co_occuring variants with ZRSR2 is in TET2 (51% of patients) followed by ASXL1 (32%) and JAK2 (19%) (Yacout et al. Leukemia 2024).</t>
+The most common co_occuring variants with ZRSR2 is in TET2 (51% of patients) followed by ASXL1 (32%) and JAK2 (19%) (Yacout et al. Leukemia 2024).
+CMML
+With respect to CMML, SRSF2, TET2, and ASXL1 are by far the most commonly mutated genes and the combination of mutation in TET2 and either SRSF2 or ZRSR2 is highly specific for a myelomonocytic phenotype (Br J Haematol. 2021 Nov;195(3):338-351.).</t>
+  </si>
+  <si>
+    <t>ZRSR2 mutations were reported in 23.8% of the CCUS patients (Yacout et al. Leukemia 2024).
+A median of four variants of known significance are observed in CNL. Mutations associated with clonal haematopoiesis are common. Nearly all cases exhibit mutation in ASXL1 (70 to 80%), TET2 (10 to 20%), and/or DNMT3A (5 to 20%). Other genes frequently mutated impact proliferative signalling (e.g. CSF3R, CBL, JAK2, NRAS, PTPN11), splicing machinery (e.g. SRSF2, U2AF1, U2AF2, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). The overall mutational profile of CNL is quite similar to chronic myelomonocytic leukaemia, MDS/MPN N, and MDS/MPN NOS, with the exception of CSF3R mutations, which are more common in CNL (&gt; 60% in CNL vs. &lt; 20% in MDS/MPN N). Hence, although the above mutations may be helpful for confirming a clonal neoplasm, morphologic criteria are important for distinguishing these diagnoses. Coexisting ASXL1 mutation is associated with a worse prognosis (WHO 5th edition).
+CSF3R is altered in 25% of chronic neutrophilic leukaemia patients. The presence of a CSF3R T618I mutation (or other activating CSF3R mutation) strongly supports a diagnosis of chronic neutrophilic leukaemia (Arber, DA. et al. (2016). Blood. 127(20):2391_405).</t>
+  </si>
+  <si>
+    <t>Myelodysplastic/myeloproliferative neoplasm with neutrophilia
+ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
+Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).
+Myelodysplastic/myeloproliferative neoplasm with SF3B1 mutation and thrombocytosis
+SF3B1 is one of the MDS_associated genes and has been used by WHO and ICC for classification of MDS along with other clinical/pathological findings. Please refer to these guidelines for detailed information. The diagnosis is based on the detection of SF3B1 mutation, and in rare cases mutations in other spliceosome genes. The most common SF3B1 mutations include p.K700E, p.H662Q, and p.K666R. The mutant allele burden is comparable to that seen in other myeloid neoplasms with ring sideroblasts. Concurrent mutations include JAK2 p.V617F in ~50% of cases, TET2, ASXL1, DNMD3A, SETBP1, SRSF2, U2AF1, ZRSR2, EZH2, IDH2, ETV6, RUNX1, CBL, CALR, and MPL. Patients diagnosed with MDS SF3B1 who acquire JAK2 p.V617F or equivalent mutations with resultant thrombocytosis may be regarded as having developed MDS/MPN SF3B1 T through clonal evolution. Among mutations common in MDS/MPN SF3B1 T, frameshift, and nonsense ASXL1 mutations may be prognostic. A proposed prognostic model based on abnormal karyotype, ASXL1 and/or SETBP1 mutations, and haemoglobin level &lt;10 g/dL stratified patients into three risk categories, with significantly different median overall survival rates (WHO 5th edition).</t>
   </si>
 </sst>
 </file>
@@ -4481,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4858,12 +4904,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>344</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5260,10 +5306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5303,244 +5349,260 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="301.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" ht="301.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>259</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="390" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" ht="390" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>299</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>304</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="210.75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" ht="210.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>315</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>318</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>341</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="345" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5552,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272D003-0FFA-4F1D-B7A9-9555EFF0D62B}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5881,12 +5943,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="330" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>344</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6555,20 +6617,223 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C32A0-9CE9-4632-B477-C33A3F54D1EC}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="135.21875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6580,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACEB0-1D23-4D73-A7AF-61BC0573E509}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6783,12 +7048,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>344</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F24E6-1F58-49E2-9992-8EB0342F46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FACCA6-CE24-4582-A5AC-742C1098FD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27480" yWindow="720" windowWidth="25710" windowHeight="14595" activeTab="2" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-27480" yWindow="720" windowWidth="25710" windowHeight="14595" activeTab="1" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -5308,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5614,7 +5614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272D003-0FFA-4F1D-B7A9-9555EFF0D62B}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FACCA6-CE24-4582-A5AC-742C1098FD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65958A7-87A6-4381-A63F-11B0824EC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27480" yWindow="720" windowWidth="25710" windowHeight="14595" activeTab="1" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-28680" yWindow="345" windowWidth="28230" windowHeight="14175" activeTab="1" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -188,14 +188,6 @@
     <t>BRAF</t>
   </si>
   <si>
-    <t xml:space="preserve">HCL
-BRAF V600E mutation is seen in &gt;97% of HCL patients and is the key genetic lesion giving rise to key biological features in HCL (Tiacci, E. et al. (2017). J Clin Oncol. 35(9):1002_1010  Falini, B. et al. (2016). Blood. 128 (15): 1918_1927).
-NHL
-BRAF is altered in 2% of non-H hodgkin lymphoma patients.
-CLL
-BRAF/KRAS/NRAS mutations are seen in about approximately 9% of CLL cases and could represent a distinct subset of CLL due to their frequent association with male gender, trisomy 12 and unmutated IGHV (Kanagal Shamanna, R. et al. (2015). Blood. 126(23):1730). </t>
-  </si>
-  <si>
     <t>Panel</t>
   </si>
   <si>
@@ -4055,7 +4047,19 @@
 CSF3R is altered in 25% of chronic neutrophilic leukaemia patients. The presence of a CSF3R T618I mutation (or other activating CSF3R mutation) strongly supports a diagnosis of chronic neutrophilic leukaemia (Arber, DA. et al. (2016). Blood. 127(20):2391_405).</t>
   </si>
   <si>
-    <t>Myelodysplastic/myeloproliferative neoplasm with neutrophilia
+    <t>NHL
+BRAF is altered in 2% of non-H hodgkin lymphoma patients.
+CLL
+BRAF/KRAS/NRAS mutations are seen in about approximately 9% of CLL cases and could represent a distinct subset of CLL due to their frequent association with male gender, trisomy 12 and unmutated IGHV (Kanagal Shamanna, R. et al. (2015). Blood. 126(23):1730). 
+HCL
+BRAF V600E mutation is seen in &gt;97% of HCL patients and is the key genetic lesion giving rise to key biological features in HCL (Tiacci, E. et al. (2017). J Clin Oncol. 35(9):1002_1010  Falini, B. et al. (2016). Blood. 128 (15): 1918_1927).
+BRAF p.V600E mutation is the key driver genetic event (the genetic hallmark of HCL) and profoundly contributes to the unique morphologic, immunophenotypic and transcriptional identity of HCL. Rare cases carrying alternative BRAF mutations or BRAF translocation to the immunoglobulin heavy chain gene locus have been also described. Additional genetic lesions are present in HCL at relatively low frequencies, including heterozygous deletion of 7q with loss of the wild type BRAF allele at 7q34 (thus resulting in hemizygosity for the mutant BRAF allele) as well as mutations of the transcription factor KLF2 (involved in marginal zone B cell differentiation), the cyclin dependent kinase inhibitor CDKN1B and the histone methyltransferase KMT2C. BRAF V600E mutation is not observed in HCL variant (HCL V) but MAP2K1 is the most frequently mutated gene (British Journal of Haematology, 2020, 191, 730_737).</t>
+  </si>
+  <si>
+    <t>ZRSR2 mutations were reported in 32.3% of the MDS patients (Yacout et al. Leukemia 2024).
+In MDS patients ZRSR2 mutations are almost exclusively seen in males, associated with a higher frequency of CCUS, and linked to better survival in MDS patients. The presence of TET2 co-mutations, especially when isolated, is associated with improved survival (Yacout et al. Leukemia 2024).
+ZRSR2 mutations were reported in 14% of the MPN/MDS patients (Yacout et al. Leukemia 2024).
+Myelodysplastic/myeloproliferative neoplasm with neutrophilia
 ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
 Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).
 Myelodysplastic/myeloproliferative neoplasm with SF3B1 mutation and thrombocytosis
@@ -4527,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -4557,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -4578,338 +4582,338 @@
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="285" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4933,58 +4937,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5008,114 +5012,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5139,146 +5143,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5300,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5308,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5330,7 +5334,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -5351,255 +5355,255 @@
     </row>
     <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="301.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="390" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="210.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="369" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="345" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>344</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>357</v>
@@ -5644,7 +5648,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -5665,290 +5669,290 @@
     </row>
     <row r="6" spans="1:2" ht="315.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="361.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="226.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="392.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="360" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="390" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="363" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="330" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5987,10 +5991,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -5998,47 +6002,47 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
         <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6050,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD634E30-2FF4-4CAE-85E8-877093FDD5DC}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6072,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="225" x14ac:dyDescent="0.2">
@@ -6080,7 +6084,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6093,18 +6097,18 @@
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -6112,7 +6116,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.2">
@@ -6120,234 +6124,234 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="255.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="210.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="286.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="225.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="105.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="211.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="106.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="394.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="300" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6385,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
@@ -6389,7 +6393,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -6397,7 +6401,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6405,55 +6409,55 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="241.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6487,7 +6491,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
@@ -6508,106 +6512,106 @@
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="150.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6638,18 +6642,18 @@
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -6657,119 +6661,119 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -6777,63 +6781,63 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6879,18 +6883,18 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -6898,162 +6902,162 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="150.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="390" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65958A7-87A6-4381-A63F-11B0824EC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00790795-7B45-4456-A31E-7AFC9B89249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="345" windowWidth="28230" windowHeight="14175" activeTab="1" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-28680" yWindow="345" windowWidth="28230" windowHeight="14175" firstSheet="1" activeTab="9" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="ALL" sheetId="6" r:id="rId7"/>
     <sheet name="Generic" sheetId="7" r:id="rId8"/>
     <sheet name="Other" sheetId="9" r:id="rId9"/>
-    <sheet name="Caveats" sheetId="11" r:id="rId10"/>
-    <sheet name="Panel" sheetId="12" r:id="rId11"/>
-    <sheet name="CLL_CNV" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId13"/>
+    <sheet name="Histiocytic disorders" sheetId="16" r:id="rId10"/>
+    <sheet name="Caveats" sheetId="11" r:id="rId11"/>
+    <sheet name="Panel" sheetId="12" r:id="rId12"/>
+    <sheet name="CLL_CNV" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="359">
   <si>
     <t>Gene</t>
   </si>
@@ -4064,6 +4065,11 @@
 Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).
 Myelodysplastic/myeloproliferative neoplasm with SF3B1 mutation and thrombocytosis
 SF3B1 is one of the MDS_associated genes and has been used by WHO and ICC for classification of MDS along with other clinical/pathological findings. Please refer to these guidelines for detailed information. The diagnosis is based on the detection of SF3B1 mutation, and in rare cases mutations in other spliceosome genes. The most common SF3B1 mutations include p.K700E, p.H662Q, and p.K666R. The mutant allele burden is comparable to that seen in other myeloid neoplasms with ring sideroblasts. Concurrent mutations include JAK2 p.V617F in ~50% of cases, TET2, ASXL1, DNMD3A, SETBP1, SRSF2, U2AF1, ZRSR2, EZH2, IDH2, ETV6, RUNX1, CBL, CALR, and MPL. Patients diagnosed with MDS SF3B1 who acquire JAK2 p.V617F or equivalent mutations with resultant thrombocytosis may be regarded as having developed MDS/MPN SF3B1 T through clonal evolution. Among mutations common in MDS/MPN SF3B1 T, frameshift, and nonsense ASXL1 mutations may be prognostic. A proposed prognostic model based on abnormal karyotype, ASXL1 and/or SETBP1 mutations, and haemoglobin level &lt;10 g/dL stratified patients into three risk categories, with significantly different median overall survival rates (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK pathway gene mutations are present in the majority (&gt; 85%) of Langerhans cell histiocytosis patients. The BRAF p.V600E mutations are the most prevalent and carry prognostic significance, especially in MS-LCH. Emerging evidence shows that BRAF p.V600E is highly associated with an increased risk of relapse, development of MS-LCH and adverse clinical outcomes (WHO 5th edition).
+BRAF V600E is recurrent in various histiocytic disorders, including Erdheim-Chester disease (ECD), where it is present in 50–60% of cases and is considered a disease-defining event (WHO 5th ed). 
+Correlation with clinical, histopathologic, and imaging findings is recommended to confirm the diagnosis and guide management. </t>
   </si>
 </sst>
 </file>
@@ -4922,6 +4928,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D047D86-2DA7-40D0-AE18-DD845C71F766}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="90.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C181D1-9A1A-4B63-974F-1376CEB759F1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4996,7 +5036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AC4A2-C3A3-47B0-98AB-490EB46276E7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5127,7 +5167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9F24A3-EA82-4A17-B915-0BA86DD79F59}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -5290,7 +5330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5262AB9B-F395-45BD-BC48-1257F4C88EFE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5312,7 +5352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -6469,7 +6509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65405E-7754-49F8-8BF9-5636ED341878}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6623,7 +6663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C32A0-9CE9-4632-B477-C33A3F54D1EC}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6849,8 +6889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACEB0-1D23-4D73-A7AF-61BC0573E509}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00790795-7B45-4456-A31E-7AFC9B89249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C4C07-3AEA-4B6E-9253-05184DE1851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="345" windowWidth="28230" windowHeight="14175" firstSheet="1" activeTab="9" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="480" yWindow="780" windowWidth="28230" windowHeight="14175" firstSheet="2" activeTab="4" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Histiocytic disorders" sheetId="16" r:id="rId10"/>
     <sheet name="Caveats" sheetId="11" r:id="rId11"/>
     <sheet name="Panel" sheetId="12" r:id="rId12"/>
-    <sheet name="CLL_CNV" sheetId="13" r:id="rId13"/>
+    <sheet name="CLL CNV" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet2" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="358">
   <si>
     <t>Gene</t>
   </si>
@@ -260,11 +260,6 @@
   <si>
     <t>The most frequently mutated genes in CLL/SLL at the time of first treatment are NOTCH1 (10 to15%), ATM (10 to 15%), SF3B1 (10%), TP53 (5 to10%), and BIRC3 (5%) (WHO 5th edition).
 The frequency of BIRC3 disruption is low at diagnosis however, BIRC3 disruptions tend to accumulate among refractory CLL and emerge over time. Patients harbouring a BIRC3 disruption typically experience an aggressive disease course (Cortese, D. et al. (2014). Leukemia. 28:710_713 Strefford, JC. (2013). Leukemia. 27:2196_2199).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAF V600E mutation is seen in &gt;97% of HCL patients and is the key genetic lesion giving rise to key biological features in HCL (Tiacci, E. et al. (2017). J Clin Oncol. 35(9):1002_1010  Falini, B. et al. (2016). Blood. 128 (15): 1918_1927).
-BRAF is altered in 2% of non-Hodgkin lymphoma patients.
-BRAF/KRAS/NRAS mutations are seen in approximately 9% of CLL cases and could represent a distinct subset of CLL due to their frequent association with male gender, trisomy 12 and unmutated IGHV (Kanagal Shamanna, R. et al. (2015). Blood. 126(23):1730). </t>
   </si>
   <si>
     <t>MAPK pathway gene mutations are present in the majority (&gt; 85%) of Langerhans cell histiocytosis patients. The BRAF p.V600E mutations are the most prevalent and carry prognostic significance, especially in MS-LCH. Emerging evidence shows that BRAF p.V600E is highly associated with an increased risk of relapse, development of MS-LCH and adverse clinical outcomes (WHO 5th edition).</t>
@@ -4567,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -4588,338 +4583,338 @@
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="285" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +4926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D047D86-2DA7-40D0-AE18-DD845C71F766}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -4953,7 +4948,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5009,10 +5004,10 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -5063,23 +5058,23 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
@@ -5087,23 +5082,23 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -5111,7 +5106,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -5119,7 +5114,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -5127,7 +5122,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -5135,7 +5130,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -5143,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="225" x14ac:dyDescent="0.2">
@@ -5151,7 +5146,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
@@ -5159,7 +5154,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5172,7 +5167,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5178,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>35</v>
@@ -5191,138 +5186,138 @@
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +5335,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5369,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -5395,258 +5390,258 @@
     </row>
     <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="301.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="390" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="210.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="369" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5688,7 +5683,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -5709,290 +5704,290 @@
     </row>
     <row r="6" spans="1:2" ht="315.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="361.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="226.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="392.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="360" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="390" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="363" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="330" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6031,10 +6026,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -6042,47 +6037,47 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
         <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6092,10 +6087,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD634E30-2FF4-4CAE-85E8-877093FDD5DC}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6116,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="225" x14ac:dyDescent="0.2">
@@ -6124,7 +6119,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6137,10 +6132,10 @@
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="270" x14ac:dyDescent="0.2">
@@ -6148,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -6159,34 +6154,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="255.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="255.75" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="210.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -6194,204 +6189,196 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="210.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="286.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="286.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="225.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="225.75" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="105.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="105.75" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="211.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="211.5" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="106.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="106.5" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="394.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="394.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="300" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="300" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="315" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +6412,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
@@ -6433,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -6441,7 +6428,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6449,55 +6436,55 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="241.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6531,7 +6518,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
@@ -6552,106 +6539,106 @@
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="150.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6682,18 +6669,18 @@
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -6701,119 +6688,119 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -6821,63 +6808,63 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6923,7 +6910,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -6931,10 +6918,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -6942,162 +6929,162 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="150.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="390" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C4C07-3AEA-4B6E-9253-05184DE1851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D4B14-6628-4BEA-BD58-BDD2E199AB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="780" windowWidth="28230" windowHeight="14175" firstSheet="2" activeTab="4" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="420" yWindow="255" windowWidth="28230" windowHeight="15675" activeTab="11" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
     <sheet name="MDS" sheetId="2" r:id="rId2"/>
     <sheet name="MPN" sheetId="3" r:id="rId3"/>
     <sheet name="Myeloma" sheetId="8" r:id="rId4"/>
-    <sheet name="Lymphoid" sheetId="4" r:id="rId5"/>
-    <sheet name="CLL" sheetId="14" r:id="rId6"/>
-    <sheet name="ALL" sheetId="6" r:id="rId7"/>
-    <sheet name="Generic" sheetId="7" r:id="rId8"/>
-    <sheet name="Other" sheetId="9" r:id="rId9"/>
-    <sheet name="Histiocytic disorders" sheetId="16" r:id="rId10"/>
-    <sheet name="Caveats" sheetId="11" r:id="rId11"/>
-    <sheet name="Panel" sheetId="12" r:id="rId12"/>
-    <sheet name="CLL CNV" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId14"/>
+    <sheet name="B lymphoid" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId6"/>
+    <sheet name="CLL" sheetId="14" r:id="rId7"/>
+    <sheet name="ALL" sheetId="6" r:id="rId8"/>
+    <sheet name="Histiocytic disorders" sheetId="16" r:id="rId9"/>
+    <sheet name="Generic" sheetId="7" r:id="rId10"/>
+    <sheet name="Other" sheetId="9" r:id="rId11"/>
+    <sheet name="Caveats" sheetId="11" r:id="rId12"/>
+    <sheet name="Panel" sheetId="12" r:id="rId13"/>
+    <sheet name="CLL CNV" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="369">
   <si>
     <t>Gene</t>
   </si>
@@ -58,39 +59,6 @@
   </si>
   <si>
     <t>ARID1A</t>
-  </si>
-  <si>
-    <r>
-      <t>ARID1A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mutations are detected in 4% of APL patients at diagnosis (WHO 5</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> edition).</t>
-    </r>
   </si>
   <si>
     <t>ABL1</t>
@@ -100,41 +68,10 @@
 Absence of ABL1 exon 2-encoded SH3 residues in BCR::ABL1 destabilizes destabilises the autoinhibited kinase conformation and confers resistance to asciminib. BCR::ABL1 variants lacking ABL1 exon 2 occur in a minority of CML patients because of the chromosome 9 breakpoint occurring 3’ of this exon and are referred to as BCR::ABL1/b2a3 or BCR::ABL1/b3a3 depending upon the presence or absence of BCR exon 14. Sequences encoded by ABL1 exon 2 are essential for the ability of asciminib to induce a closed, inactive kinase conformation and therefore asciminib should only be used with extreme caution under close molecular monitoring in this patient population (Leukemia; https://doi.org/10.1038/s41375-024-02353-0).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ARID1A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>is altered in 8% of lymphoma, 9% of non-Hodgkin lymphoma, 11% of diffuse large B cell lymphoma, 17% of Waldenstrom macroglobulinemia (Haematologica. 2017 Dec, 102(12): 2077_2085), 13% of follicular lymphoma (part of the M7 FLIPI clinic genetic score), 5% of mantle cell lymphoma and 5% of mature T cell and NK cell non-Hodgkin lymphoma patients (MyCancerGenome).</t>
-    </r>
-  </si>
-  <si>
     <t>ASXL1</t>
   </si>
   <si>
-    <t xml:space="preserve">ASXL1 is altered in 19% of refractory anaemia with excess blasts patients. </t>
-  </si>
-  <si>
     <t>Refractory anaemia with excess blasts</t>
-  </si>
-  <si>
-    <r>
-      <t>ASXL1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is altered in 2% of multiple myeloma patients.</t>
-    </r>
   </si>
   <si>
     <t>ANKRD26</t>
@@ -148,20 +85,6 @@
   </si>
   <si>
     <t>BCOR</t>
-  </si>
-  <si>
-    <r>
-      <t>BCOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is altered in 14% of ALL patients.</t>
-    </r>
   </si>
   <si>
     <t>BCOR is altered in 6% of AML patients.  
@@ -183,9 +106,6 @@
     <t>BIRC3</t>
   </si>
   <si>
-    <t>The frequency of BIRC3 disruption is low at diagnosis however, BIRC3 disruptions tend to accumulate among refractory CLL and emerge over time. Patients harbouring a BIRC3 disruption typically experience an aggressive disease course (Cortese, D. et al. (2014). Leukemia. 28:710_713 Strefford, JC. (2013). Leukemia. 27:2196_2199).</t>
-  </si>
-  <si>
     <t>BRAF</t>
   </si>
   <si>
@@ -260,9 +180,6 @@
   <si>
     <t>The most frequently mutated genes in CLL/SLL at the time of first treatment are NOTCH1 (10 to15%), ATM (10 to 15%), SF3B1 (10%), TP53 (5 to10%), and BIRC3 (5%) (WHO 5th edition).
 The frequency of BIRC3 disruption is low at diagnosis however, BIRC3 disruptions tend to accumulate among refractory CLL and emerge over time. Patients harbouring a BIRC3 disruption typically experience an aggressive disease course (Cortese, D. et al. (2014). Leukemia. 28:710_713 Strefford, JC. (2013). Leukemia. 27:2196_2199).</t>
-  </si>
-  <si>
-    <t>MAPK pathway gene mutations are present in the majority (&gt; 85%) of Langerhans cell histiocytosis patients. The BRAF p.V600E mutations are the most prevalent and carry prognostic significance, especially in MS-LCH. Emerging evidence shows that BRAF p.V600E is highly associated with an increased risk of relapse, development of MS-LCH and adverse clinical outcomes (WHO 5th edition).</t>
   </si>
   <si>
     <t>BTK</t>
@@ -385,9 +302,6 @@
 Please note that this assay cannot exclude the germline origin for the DDX41 c.xxx p.(xxx) variant. Referral to clinical genetics service for family history and further assessment is recommended.</t>
   </si>
   <si>
-    <t>MDS with DDX41 mutation defines a unique subtype that is distinct from other myeloid neoplasms. Mutations in DDX41 have been associated with high blast percentages and risk of AML transformation, but conversely favourable OS, in particular in MDS with excess blasts. Both germline and somatic DDX41 mutations have been reported in MDS (NEJM Evid 2022 1 (7)). A recent large study by Makishima et al demonstrated that patients with MDS along with a DDX41 mutation rapidly progressed to AML, which was however, confined to those having truncating variants. According to this study the outcomes of the MDS patients with DDX41 mutation were not affected by the conventional risk stratifications, including the revised/molecular International Prognostic Scoring System. Disease progression of patients with DDX41 truncating variants tends to be stable, keeping relatively low blast counts, even after leukaemia progression. DDX41 mutated cases in this study had a distinct co-mutation pattern, compared with DDX41 WT cases, characterised by a higher frequency of CUX1 mutations and lower frequencies of many of other mutations commonly seen in WT cases, regardless of disease subtype (Makishima, H. et al. (2023). Blood. 141(5):534_549).</t>
-  </si>
-  <si>
     <t>DNMT3A</t>
   </si>
   <si>
@@ -415,17 +329,10 @@
     <t>EP300</t>
   </si>
   <si>
-    <t>EP300 is altered in 14% of follicular lymphoma (part of M7 FLIPI clinico genetic score) and 9% of diffuse large B cell lymphoma patients.</t>
-  </si>
-  <si>
     <t>ETNK1</t>
   </si>
   <si>
     <t>Recurrent ETNK1 mutations have been reported in 7-13% of patients who have atypical chronic myeloid leukemia (aCML; recently renamed myelodysplastic/ myeloproliferative neoplasm ([MDS/MPN)] with neutrophilia in the fifth edition of the WHO classification), in 3-14% of those who have CMML, and in 20% of those who have systemic mastocytosis with eosinophilia.</t>
-  </si>
-  <si>
-    <t>ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
-Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).</t>
   </si>
   <si>
     <t>MPN/MDS</t>
@@ -1224,15 +1131,6 @@
     <t>In ~50% of cases progressing on treatment with BCL2 inhibitors (including venetoclax), the CLL/SLL cells acquire mutations in BCL2 (disrupting drug binding site) or amplification of 1q (involving MCL1) (WHO 5th edition).
 Multiple BCL2 mutations cooccurring with Gly101Val emerge in CLL progression on venetoclax (Blombery, P. et al. (2020). Blood. 135 (10): 773_777).
 Refer to BCL2 table</t>
-  </si>
-  <si>
-    <t>BCL11B</t>
-  </si>
-  <si>
-    <t>Genomic rearrangements involving 14q32 result in translocations of active hematopoietic promoters or enhancers, commonly involving ARID1B, CCDC26, or ETV6, to the proximity of the BCL11B gene. BCL11B alterations are found in a series of acute leukemias, including AML (typically FAB M0), mixed phenotype acute leukemia (MPAL), as well as early T-cell precursor ALL (ETP-ALL). Hijacked regulatory elements lead to outlier high expression of BCL11B from the affected allele. Pediatric AML cases with BCL11B alterations exhibited high measurable residual disease (MRD) after induction I and a low overall survival rate (4-year OS &lt;60%) compared with other subtypes according to the study by Umeda et al (Haematologica. 2025 Jan 9. doi: 10.3324/haematol.2024.285644)</t>
-  </si>
-  <si>
-    <t>The frequency of BIRC3 disruption is around 5% at diagnosis; however, BIRC3 disruptions tend to accumulate among refractory CLL and emerge over time. (Cortese, D. et al. (2014). Leukemia. 28:710_713 Strefford, JC. (2013). Leukemia. 27:2196_2199).</t>
   </si>
   <si>
     <t xml:space="preserve">BRAF/KRAS/NRAS mutations are seen in about 9% of CLL and could represent a distinct subset of CLL due to their frequent association with male gender, trisomy 12 and unmutated IGHV (Kanagal Shamanna, R. et al. (2015). Blood. 126(23):1730). </t>
@@ -1694,51 +1592,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No diagnosis
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Deregulation of the ETV6 gene through deletion is recurrent in leukaemia. Somatic mutations in ETV6 have been described in a variety of hematologic malignancies, among those children with T ALL and patients with MDS, AML, B ALL, CLL, CML and mixed phenotype acute leukaemia. Deletions involving the cytogenetic region 12p13 are common in hematopoietic malignancies of both lymphoid and myeloid origin, notably in MDS with monosomy 7 and AML with complex karyotypes (Int J Hematol (2017) 106:189–195).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Germline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Germline ETV6 heterozygous deleterious mutations are associated with lifelong mild to moderate thrombocytopenia, variable platelet dysfunction, and an increased risk of haematological malignancies—most notably childhood B-lymphoblastic leukaemia, and to a lesser extent myeloid malignancies (WHO 5th edition).
-Specific hotspot variants, such as P214L, are linked to defects in megakaryocyte maturation and proplatelet formation. Clinical and genetic correlation is recommended to assess for germline predisposition."
-For information: There are three other amino acid residues that are affected by germline mutations in two families: the frameshift mutation N385Vfs, Y401N, and mutations of residue 369 (R369W, R369Q) (Int J Hematol (2017) 106:189_195).</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The somatic ETV6 deletion strongly supports a diagnosis of myelodysplastic syndromes in the appropriate clinical context (N Engl J Med 2011;364:2496_2506). ETV6 deletion is a common additional abnormality in patients with myelodysplastic syndromes or acute myeloid leukaemia and monosomy 7 (Haematologica. 2014 Oct; 99(10):e176_8).
 ETV6 mutations are rare but recurrent somatic events in myeloid neoplasms These mutations are more prevalent in high-risk disease categories such as MDS with increased blasts (MDS-IB), primary myelofibrosis (PMF), and AML with myelodysplasia-related changes (AML-MR). Notably, ETV6 mutations are never isolated abnormalities; they often exist as subclonal mutations and are frequently associated with other mutations, including ASXL1, U2AF1, RUNX1, and SETBP1, in MDS (Br J Haematol. 2023; 202(2): 279–283).
 </t>
@@ -1792,53 +1645,6 @@
   <si>
     <t>Childhood ALL cases with ETV6 germline mutations constitute a novel leukaemia predisposition syndrome that represents 1% of ALL patients (Rio Machin, A. and Fitzgibbon, J. (2021). Blood. 137 (3): 288_289).
 Please note that this assay cannot exclude the germline origin for the ETV6 c.xxx p.(xxx) variant. Referral to clinical genetics service for family history and further assessment is recommended.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No diagnosis
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Deregulation of the ETV6 gene through deletion is recurrent in leukaemia. Somatic mutations in ETV6 have been described in a variety of hematologic malignancies, among those children with T ALL and patients with MDS, AML, B ALL, CLL, CML and mixed phenotype acute leukaemia. Deletions involving the cytogenetic region 12p13 are common in hematopoietic malignancies of both lymphoid and myeloid origin, notably in MDS with monosomy 7 and AML with complex karyotypes (Int J Hematol (2017) 106:189–195).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Germline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Myeloid neoplasms with germline ETV6 mutation is a WHO and ICC disease category (WHO 5th edition and ICC 2022).
-Please note that this assay cannot exclude the germline origin for the ETV6 c.xxx p.(xxx) variant. Referral to clinical genetics service for family history and further assessment is recommended.
-Germline ETV6 heterozygous deleterious mutations are associated with lifelong mild to moderate thrombocytopenia, variable platelet dysfunction, and an increased risk of haematological malignancies—most notably childhood B-lymphoblastic leukaemia, and to a lesser extent myeloid malignancies (WHO 5th edition).
-Specific hotspot variants, such as P214L, are linked to defects in megakaryocyte maturation and proplatelet formation. Clinical and genetic correlation is recommended to assess for germline predisposition."
-For information: There are three other amino acid residues that are affected by germline mutations in two families: the frameshift mutation N385Vfs, Y401N, and mutations of residue 369 (R369W, R369Q) (Int J Hematol (2017) 106:189_195).</t>
-    </r>
   </si>
   <si>
     <t>EZH2</t>
@@ -2062,19 +1868,6 @@
     <t>FLT3 is altered in 0.8% of multiple myeloma patients.</t>
   </si>
   <si>
-    <t>FLT3 is altered in 2% of lymphoma patients.
-FLT3 is altered in 1% of non hodgkin lymphoma patients.
-FLT3 is altered in 6% of anaplastic large cell lymphoma patients.
-FLT3 is altered in 0.6% of follicular lymphoma patients.
-FLT3 is altered in 3% of lymphoplasmacytic lymphoma patients.
-FLT3 is altered in 2% of diffuse large B cell lymphoma patients.
-FLT3 is altered in 1% of B cell non-Hodgkin lymphoma patients.
-FLT3 is altered in 2% of T cell non-Hodgkin lymphoma patients.
-FLT3 is altered in 7% of T cell lymphoblastic leukaemia/lymphoma patients.
-FLT3 is altered in 2% of mature T cell and NK cell neoplasm patients
-FLT3 is altered in 6% of Waldenstrom macroglobulinemia patients.</t>
-  </si>
-  <si>
     <t>FOXO1</t>
   </si>
   <si>
@@ -2332,32 +2125,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">IDH1/2 (IDH1 R132C and the IDH2 R140Q) mutations in adolescents and adults with ALL were reported to influence prognosis and survival in patients with ZNF384 rearrangement. To interpret these findings, please correlate with RNA fusion studies if available. (Yasuda, T., et al, Blood 2022, 139(12), 1850–1862. https://doi.org/10.1182/blood.2021011921).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CHIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Clonal hematopoiesis of indeterminate potential (CHIP) is a premalignant state characterised by myeloid malignancy driver mutations with a variant allele fraction ≥0.02 in individuals without blood count abnormalities. CHIP increases in prevalence with age, occurring in ~10% of individuals aged &gt;70 years (Blood. 2022;140(11):1200-1228.). The most frequent mutated genes in CHIP are DNMT3A, TET2, ASXL1, TP53, PPM1D, SRSF2, GNB1, SF3B1, JAK2, CBL, GNAS, NF1, RUNX1, BCORL1, BRCC3, CUX1, ASXL2, BCOR, KRAS, PRPF8, SMC1A, IDH2, KDM6A, SETD2, CALR (Nature Medicine, VOL 27, November 2021, 1921–1927).</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">In patients with Mixed phenotype acute leukaemia, T/myeloid, additional genetic aberrations include WT1 mutations, often co mutated with ETV6 and RUNX1 in paediatric patients and with DNMT3A and IDH2 mutations in adults. PHF6 is frequently mutated and is often associated with some degree of B lineage differentiation (WHO 5th edition).
 </t>
     </r>
@@ -2436,29 +2203,6 @@
   </si>
   <si>
     <t>IRF4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Diffuse large B-cell lymphoma, not otherwise specified</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Among the haematological malignancies IRF4 alterations have the greatest prevalence in diffuse large B cell lymphoma, not otherwise specified (MyCancerGenome). 
-IRF4 C99R has been reported to have the greatest prevalence in B cell lymphoblastic leukaemia/lymphoma, diffuse large B cell lymphoma, not otherwise specified, classical hodgkin lymphoma, and mediastinal large B cell lymphoma having the greatest prevalence. Please correlate with other clinical/pathological findings for differential diagnosis.</t>
-    </r>
   </si>
   <si>
     <t>KLF2</t>
@@ -2648,9 +2392,6 @@
     <t>Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
   </si>
   <si>
-    <t>TAL1 locus is deregulated in about 20 to 30% of cases of T ALL. Other important rearrangements in T ALL involve MLLT10, KMT2A, ABL1, and NUP98. Deletions also occur in T ALL. The most important is del(9p), resulting in loss of the tumour suppressor gene CDKN2A, which occurs at a frequency of &gt;= 30%. Other tumour suppressors deleted or inactivated in T ALL include BCL11B, LEF1, WT1, NF1, ETV6, RUNX1, and GATA3, but the last three are associated with the Early T precursor lymphoblastic leukaemia / lymphoma (ETP ALL) phenotype. Signalling pathway deregulation in T ALL occurs in the NOTCH1, PI3K/AKT, JAK/STAT, RAS/MAPK, and ABL kinase pathways. Over 75% of cases show NOTCH1 pathway activation, which can be caused by activating mutations involving the extracellular heterodimerization domain and / or the C terminal PEST domain of NOTCH1 (50% of cases) and/or by loss of function mutations in FBXW7, a negative regulator of NOTCH1 (30% of cases). NOTCH1 and/or FBXW7 mutations have been associated with better clinical outcomes, while loss of heterozygosity at 6q, PTEN mutations, and KMT2D mutations have been associated with worse outcomes (WHO 5th edition).</t>
-  </si>
-  <si>
     <t>MAP2K1</t>
   </si>
   <si>
@@ -2799,9 +2540,6 @@
     <t>A minority of MDS patients with 5q deletion have concomitant mutations in MPL W515L, which do not appear to alter the disease phenotype or prognosis (WHO 5th edition).</t>
   </si>
   <si>
-    <t>MEF2B1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2980,9 +2718,6 @@
 NOTCH1 mutations have been associated with inferior response to rituximab-based chemoimmunotherapy, as demonstrated in retrospective analyses (Stilgenbauer et al., Blood, 2014). They are also reported as independent adverse prognostic markers for overall survival (Rossi et al., Blood, 2012), though their prognostic significance in the context of novel targeted therapies remains uncertain. The prevalence of NOTCH1 mutations increases to approximately 15 to 20% in fludarabine-refractory chronic lymphocytic leukaemia (CLL) (Rosati et al., Front Oncol, 2018).
 Add if appropriate:
 Mutation frequency is notably higher following disease progression to Richter transformation, affecting around 30% of cases, compared to newly diagnosed CLL (Exp Med, 2011; Tumori, 2017). NOTCH1 mutations are also enriched in CLL cases with trisomy 12, with reported frequencies up to 41.9% in aggressive subgroups (Balatti et al., Blood, 2012), suggesting a pathogenic role in this subset. Co-occurrence with deletions of chromosome 14q has been documented, while NOTCH1 mutations appear inversely correlated with chromosome 11q deletions (Genes Chromosomes Cancer, 2014; Haematologica, 2012).</t>
-  </si>
-  <si>
-    <t>NOTCH1 gene mutations in mantle cell lymphoma (MCL) have been described in about 5 to 10% of cases and are associated with significantly shorter survival rates (Silkenstedt, E. et al. (2019). J Exp Clin Cancer Res. 38(1):446).</t>
   </si>
   <si>
     <r>
@@ -3272,11 +3007,6 @@
 The highest prevalence of PHF6 frameshift variants have been reported in AML, MDS, MPN, AML with mutated NPM1, and AML with MDS_related changes. Please correlate with other clinical/pathological findings for differential diagnosis (MyCancerGenome).</t>
   </si>
   <si>
-    <t>PHF6 mutation supports the notion that AUL may represent a biological continuum of T/myeloid mixed-phenotype acute leukaemia and early T_precursor lymphoblastic leukaemia (WHO 5th edition).
-No diagnosis
-The highest prevalence of PHF6 frameshift variants have been reported in AML, MDS, MPN, AML with mutated NPM1, and AML with MDS_related changes. Please correlate with other clinical/pathological findings for differential diagnosis (MyCancerGenome).</t>
-  </si>
-  <si>
     <t>PLCG2</t>
   </si>
   <si>
@@ -3322,9 +3052,6 @@
     <t xml:space="preserve">PRPF8 is a core component of spliceosome complexes. Recurrent somatic PRPF8 mutations or hemizygous deletions were observed in 3.3% and 5.3% of myeloid neoplasms, respectively. Notably, 50% of PRPF8 mutant and deletion of chromosome 17p cases were found in AML (Leukemia 2015;29:126-36).   </t>
   </si>
   <si>
-    <t>RAD11</t>
-  </si>
-  <si>
     <t>RAD21 is altered in 2% of AML patients. 
 The analysis of 790 cohesin_mutant patients with myeloid malignancies showed that the mutations in RAD21, SMC1A and SMC3 share features with de novo AML with better prognosis, and co_occurrence with de novo AML_type lesions (Johann_Christoph Jann, et al. Leukemia 2024).</t>
   </si>
@@ -3353,13 +3080,6 @@
   </si>
   <si>
     <t>KRAS</t>
-  </si>
-  <si>
-    <t>Activating mutations of NRAS and KRAS genes are common in newly diagnosed AML, occurring in 11 to 16% and 4 to 5% of patients, respectively. RAS mutations are frequently acquired at time of progression from MDS to AML (Ball, BJ. et al. (2019). Blood. 134 (Supplement_1):18).
-NRAS mutations are detected at 7 to 10 % of APL patients at diagnosis (WHO 5th edition).
-KRAS mutations are detected at 3 to 4 % of APL patients at diagnosis (WHO 5th edition).
-AML (Paediatric)
-RAS pathway mutations were reported as the most frequent variants among paediatric AML patients, with 37.5% having at least one RAS_related mutation and 21.3% of those having mutations in multiple RAS pathway genes. Nat Genet. 2024 Feb;56(2):281-293</t>
   </si>
   <si>
     <t>NRAS is altered in 23% of CMML patients.
@@ -3423,16 +3143,6 @@
 In patients with Mixed phenotype acute leukaemia, T/myeloid, additional genetic aberrations include WT1 mutations, often co mutated with ETV6 and RUNX1 in paediatric patients and with DNMT3A and IDH2 mutations in adults. PHF6 is frequently mutated and is often associated with some degree of B lineage differentiation (WHO 5th edition).</t>
   </si>
   <si>
-    <t>Mixed-phenotype acute leukaemia, T/myeloid
-In patients with Mixed phenotype acute leukaemia, T/myeloid, additional genetic aberrations include WT1 mutations, often co mutated with ETV6 and RUNX1 in paediatric patients and with DNMT3A and IDH2 mutations in adults. PHF6 is frequently mutated and is often associated with some degree of B lineage differentiation (WHO 5th edition).</t>
-  </si>
-  <si>
-    <t>Activating mutations in the tyrosine kinase 2 (TK2) domain (exon 17) of the KIT gene, especially KIT p.D816V, are the molecular hallmark of systemic mastocytosis (SM) and are detected in about 90% of cases, depending on the SM subtype. 
-Detection of non_KIT mutations usually indicate (myeloid) systemic mastocytosis with an associated haematological neoplasm (SM_AHN), and some showed adverse prognostic significance (e.g., SRSF2, ASXL1, and/or RUNX1). 
-Presence of &gt;=1 mutations in genes besides KIT, including SRSF2, ASXL1, or RUNX1, have negative prognostic impact in AdvSM. However, a small subset of patients with AdvSM may show a relatively good outcome, including cases without significant cytopenias and low KIT p.D816V VAF in the absence of additional mutations, SM with atypical KIT mutations involving exons 8 to 10 (usually in patients with well differentiated systemic mastocytosis (WDSM)  pattern) or SM associated haematological neoplasm (AHN) with PDGFR rearrangement, which are highly sensitive to first generation KIT or PDGFR tyrosine kinase inhibitors, and SM AHN presenting with ISM associated with low risk AHN (e.g. essential thrombocythaemia), whenever the AHN is adequately controlled (WHO, 5th edition
-Clonal hematopoiesis of indeterminate potential (CHIP) is a premalignant state characterised by myeloid malignancy driver mutations with a variant allele fraction ≥0.02 in individuals without blood count abnormalities. CHIP increases in prevalence with age, occurring in ~10% of individuals aged &gt;70 years (Blood. 2022;140(11):1200-1228.). The most frequent mutated genes in CHIP are DNMT3A, TET2, ASXL1, TP53, PPM1D, SRSF2, GNB1, SF3B1, JAK2, CBL, GNAS, NF1, RUNX1, BCORL1, BRCC3, CUX1, ASXL2, BCOR, KRAS, PRPF8, SMC1A, IDH2, KDM6A, SETD2, CALR (Nature Medicine, VOL 27, November 2021, 1921–1927).</t>
-  </si>
-  <si>
     <t>RUNX1 mutation is present in 7% of MDS patients.
 According to criteria from WHO (2022), ICC and ELN, the MDS-related genes are ASXL1, BCOR, EZH2, RUNX1, SF3B1, SRSF2, STAG2, U2AF1, ZRSR2. MDS Patients with comutation patterns in other genes such as ASXL1, BCOR, BCORL1, EZH2, NRAS, RUNX1, STAG2 or U2AF1 have worse clinical outcomes (Blood. 2025 May 1;145(18):1987-2001) (NEJM Evid 2022). 
 If together with SF3B1: 
@@ -3558,9 +3268,6 @@
 If a potentially pathogenic/likely pathogenic SH2B3 germline variant (VAF: 40 to 60%) is detected, testing for hereditary thrombocytosis is not currently recommended for the analysis of the SH2B3, and therefore, onward testing for family members would not necessarily be recommended even if this variant were found in the germline. Further clinical discussion around management is advised at the clinical MDT.
 Information for clinical scientists about the SH2B3 and its role in MPN:
 Most of the SH2B3 mutations identified are missense mutations targeting all exons, with predominance in exon 2 coding for the PH domain (202 to 319). Somatic mutations of SH2B3 are infrequent in MPN however, a hot spot appears to exist within the exon 2 of the gene with p.E208Q as the only recurrent mutation reported to date</t>
-  </si>
-  <si>
-    <t>SMC4</t>
   </si>
   <si>
     <t>In MDS and other myeloid malignancies, ∼10% to 15% of the cases harbour mutations within genes encoding the cohesin complex (RAD21, SMC1A, SMC3, STAG) (Blood, 2019, 133 (10): 1049_1059).
@@ -3853,12 +3560,6 @@
 Somatic mutational profiling of NMZL has demonstrated mutations recurrently affecting KMT2D, PTPRD, KLF2, CARD11, FAS, TNFAIP3, CREBBP, TET2, and TBL1XR1, although these mutations can be seen in other B cell lymphomas. </t>
   </si>
   <si>
-    <t>Mutations in genes encoding transcriptional regulators, particularly PAX5 and IKZF1 are present in the majority of cases. Other common mutations include NRAS and PTPN11, resulting in activation of the RAS signalling pathway. Mutations in epigenetic regulators are also common, and they include MLLT3, KDM6A, EP300, CREBBP, TET2, EZH2, and ASXL1 (WHO 5th edition).
-Blastic plasmacytoid dendritic cell leukaemia
-TET2 and SRSF2 (exon1) mutations are the most common alterations in blastic plasmacytoid dendritic cell neoplasm.
-In 20% of the cases, BPDCN co exists with other myeloid malignancies, especially with CMML and therefore some of the detected mutations might be related to the coexisting leukaemia. Please correlate the results with bone marrow morphology and other clinical and pathological findings.</t>
-  </si>
-  <si>
     <t>TP53</t>
   </si>
   <si>
@@ -3949,9 +3650,6 @@
     <t>U2AF1</t>
   </si>
   <si>
-    <t>U2AF1 variants have been identified in myeloid malignancies, in particular myelodysplastic syndromes (MDS), myeloproliferative neoplasms (MPN), MDS/myeloproliferative neoplasms (MDS/MPN), and secondary acute myeloid leukemia (sAML)(MyCancerGenome). Please correlate with other clinicopathological findings for differential diagnosis.</t>
-  </si>
-  <si>
     <t>U2AF1 is altered in 6% of AML patients.
 Mutations in MDS related genes (ASXL1, BCOR, EZH2, RUNX1, SF3B1, SRSF2, STAG2, U2AF1, ZRSR2) along with MDS related cytogenetic abnormalities, and a history of MDS or MDS/MPN, are used to classify patients as having AML with myelodysplasia related changes now called AML, myelodysplasia related (AML MR). These mutations confer an adverse prognosis even if they occur in de novo AML (WHO 5th Edition and ELN guidelines 2022). The other proposed mutated genes for secondary AML type mutations (sAML) are RUNX1, SETBP1, and KMT2A_PTD mutations (Nature Communications | ( 2022) 13:4622).</t>
   </si>
@@ -4066,12 +3764,310 @@
 BRAF V600E is recurrent in various histiocytic disorders, including Erdheim-Chester disease (ECD), where it is present in 50–60% of cases and is considered a disease-defining event (WHO 5th ed). 
 Correlation with clinical, histopathologic, and imaging findings is recommended to confirm the diagnosis and guide management. </t>
   </si>
+  <si>
+    <r>
+      <t>ARID1A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mutations are detected in 4% of APL patients at diagnosis (WHO 5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> edition).</t>
+    </r>
+  </si>
+  <si>
+    <t>AML with CBFB-GDXY mutation
+A novel subtype of AML characterised by recurrent in frame insertion mutations [p.(Asp87delinsGlyAspSerTyr); GDSY] in CBFB, leading to a GDXY amino acid sequence change at position D87. In these patients, recurrent mutations have been reported in BCORL1, FLT3, NRAS, ETV6, KDM6A, and NF1. FLT3 tyrosine kinase domain (TKD) mutations were most common, although internal tandem duplications and mutations outside the TKD have also been observed. CBFB GDXY mutations have been observed in both children and adults, but were enriched in adolescent and young adult age groups (Blood (2023) 141 (7): 800_805).</t>
+  </si>
+  <si>
+    <t>AML with MECOM rearrangement
+Gene mutations are found in virtually all cases of AML with MECOM rearrangement. Mutations of genes activating RAS/receptor tyrosine kinase signalling pathways are reported in nearly all cases, with the most common of these mutations affecting NRAS (nearly 25% of cases), PTPN11 (in nearly 20%), as well as FLT3, KRAS, NF1 and CBL (in nearly 10% each) and KIT (in 2%). Other commonly mutated genes are SF3B1 (mutated in ~25% of cases, often co mutated with GATA2), ASXL1 (in nearly 20%), GATA2, SRSF2 and RUNX1 (in nearly 15% each) as well as DNMT3A and TP53 (in nearly 10% each) (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>Partial tandem duplication of KMT2A gene (also known as MLL Partial Tandem Duplication) was detected in this sample. KMT2A PTD occurs in 5 to 10% of de novo AML cases and confers worse prognosis in AML with normal Karyotype (Döhner, K. et al. (2002). J Clin Oncol. 20(15):3254_61). KMT2DA PTD has also been considered among the sAML class defining molecular markers (along with SRSF2, SF3B1, U2AF1, ZRSR2, SF1, ASXL1, STAG2, EZH2, PHF6, RUNX1, SETBP1, BCOR, CUX1, NF1). The sAML patients with 2 or more class defining genes are associated with a worse outcome (Tazi, Y. et al. (2022). Nature Communications, 13, Article number: 4622). Additionally, KMT2A PTD has been reported in a small subset of MPN, MDS as well as AML transformation of MPN or MPN/MDS cases (Case Report in Haematologica. (2018) 103:e131).
+For information only: A recent large study by Makishima et al demonstrated that patients with MDS along with a DDX41 mutation rapidly progressed to AML, which was however, confined to those having truncating variants. According to this study the outcomes of the MDS patients with DDX41 mutation were not affected by the conventional risk stratifications including the revised/molecular International Prognostic Scoring System. Disease progression of patients with DDX41 truncating variants tends to be stable, keeping relatively low blast counts, even after Leukaemia progression. DDX41 mutated cases in this study had a distinct co mutation pattern, compared with DDX41 WT cases, characterized by a higher frequency of CUX1 mutations and lower frequencies of many of other mutations commonly seen in WT cases, regardless of disease subtype (Makishima, H. et al. (2023). Blood. 141(5):534_549).</t>
+  </si>
+  <si>
+    <t>ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
+Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>AML
+Activating mutations of NRAS and KRAS genes are common in newly diagnosed AML, occurring in 11 to 16% and 4 to 5% of patients, respectively. RAS mutations are frequently acquired at time of progression from MDS to AML (Ball, BJ. et al. (2019). Blood. 134 (Supplement_1):18).
+NRAS mutations are detected at 7 to 10 % of APL patients at diagnosis (WHO 5th edition).
+KRAS mutations are detected at 3 to 4 % of APL patients at diagnosis (WHO 5th edition).
+AML (Paediatric)
+RAS pathway mutations were reported as the most frequent variants among paediatric AML patients, with 37.5% having at least one RAS_related mutation and 21.3% of those having mutations in multiple RAS pathway genes. Nat Genet. 2024 Feb;56(2):281-293</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>AML, Myelodysplasia-related (AML-MR)
+Mutations in MDS_related genes (ASXL1, BCOR, EZH2, RUNX1, SF3B1, SRSF2, STAG2, U2AF1, ZRSR2) along with MDS_related cytogenetic abnormalities, and a history of MDS or MDS/MPN, are used to classify patients as having AML with myelodysplasia_related changes now called AML, myelodysplasia related (AML MR). These mutations confer an adverse prognosis even if they occur in de novo AML (WHO 5th Edition and ELN guidelines 2022). The other proposed mutated genes for secondary AML type mutations (sAML) are RUNX1, SETBP1, and KMT2A_PTD mutations (Nature Communications | ( 2022) 13:4622).</t>
+  </si>
+  <si>
+    <t>SF1</t>
+  </si>
+  <si>
+    <t>SMC3</t>
+  </si>
+  <si>
+    <t>STAT5B</t>
+  </si>
+  <si>
+    <t>ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
+Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).
+No diagnosis:
+Recurrent ETNK1 mutations have been reported in 7% to 13% of patients who have atypical chronic myeloid leukemia (aCML; recently renamed myelodysplastic/ myeloproliferative neoplasm [MDS/MPN] with neutrophilia in the fifth edition of the WHO classification), in 3% to 14% of those who have CMML, and in 20% of those who have systemic mastocytosis with eosinophilia.</t>
+  </si>
+  <si>
+    <t>MDS
+EZH2 is altered in 6% of myelodysplastic syndromes patients. 
+EZH2 is altered in 4% of therapy related myelodysplastic syndrome patients.
+EZH2 is altered in 3% of myelodysplastic syndrome with excess blasts 2 patients.
+According to criteria from WHO (2022), ICC and ELN, the MDS-related genes are ASXL1, BCOR, EZH2, RUNX1, SF3B1, SRSF2, STAG2, U2AF1, ZRSR2. 
+MDS Patients with comutation patterns in other genes such as ASXL1, BCOR, BCORL1, EZH2, NRAS, RUNX1, STAG2 or U2AF1 have worse clinical outcomes (Blood. 2025 May 1;145(18):1987-2001) (NEJM Evid 2022). 
+Myelodysplastic neoplasm with low blasts and SF3B1 mutation: 
+Identification of typically heterozygous SF3B1 mutations (~50% affecting codon 700, other hotspots at codons 666, 662, 622 and 625), usually at high variant allelic frequency (median VAF 35 to 43%), is required for diagnosis. SF3B1 mutation is detected in 90% of MDS cases with &gt;= 5% of ring sideroblasts. The presence of SF3B1 variant at a VAF under 5% does not qualify for MDS SF3B1. Certain comutations have been correlated with adverse impact in MDS SF3B1. Initial data implicated TP53, RUNX1, EZH2 and FLT3. More recent data suggests that the presence of co mutations involving BCOR, BCORL1, NRAS, RUNX1, SRSF2 or STAG2, are associated with significantly different outcomes in comparison to mutation in SF3B1 alone. Most cases of MDS SF3B1 have a normal karyotype or abnormalities involving a single chromosome. Cases with 5q deletion, monosomy 7/7q deletion, or complex karyotype are excluded albeit, additional studies are needed to support this premise, particularly the impact of 5q deletion in rare cases of MDS with mutant SF3B1 (WHO 5th edition). MDS SF3B1 has the best outcome among MDS types. Most patients are stratified into lower risk groups in the Revised International Prognostic Scoring System. MDS with low blasts, ring sideroblasts and wildtype SF3B1 has a less favourable overall survival and leukaemia free survival. The favourable outcome associated with SF3B1 mutation is lost as soon as an excess of blasts is observed. Additional mutations in epigenetic regulators, including DNMT3A, TET2 or ASXL1 do not affect the disease outcome. In contrast, mutations in TP53, RUNX1, EZH2 mutations are associated with a poorer outcome (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myelodysplastic/myeloproliferative neoplasm with neutrophilia
+ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). </t>
+  </si>
+  <si>
+    <t>No diagnosis
+The highest prevalence of PHF6 frameshift variants have been reported in acute myeloid leukaemia, myelodysplastic syndromes, myeloproliferative neoplasm, acute myeloid leukaemia with mutated NPM1, and acute myeloid leukaemia with myelodysplasia related changes. Please correlate with other clinical/pathological findings for differential diagnosis (MyCancerGenome).</t>
+  </si>
+  <si>
+    <t>Myelodysplastic/myeloproliferative neoplasm with neutrophilia
+ETNK1 and SETBP1 mutations have been identified as key pathogenic events in MDS/MPN N. Clonal architecture reconstruction shows that ETNK1 mutations are invariably an early event, whereas SETBP1 mutation is a late event, with mutations involving the RAS pathway (e.g. KRAS, NRAS, CBL mutations) being intervening events (WHO 5th edition). 
+Point mutations occur in most cases, with a median of 2 to 4 per case. The diagnosis is supported by the presence of mutations in SETBP1 and/or ETNK1. Mutations associated with CH are common, usually involving ASXL1 (60 to 80%), TET2 (30 to 40%), and/or DNMT3A (&lt;10%). Other genes frequently mutated impact proliferative signalling pathways (e.g. CBL, JAK2, NF1, NRAS), splicing machinery (e.g. SRSF2, U2AF1, SF3B1, ZRSR2), transcription factors (CUX1, GATA2, RUNX1), enzymes (ETNK1), epigenetic regulators (SETBP1, EZH2), and chromosomal separation regulators (STAG2). Higher than average variants of known significance (&gt;4) or a 3 gene signature have been reported to confer inferior outcome, as well as mutations of NRAS, GATA2, ASXL1, SETBP1, RUNX1, TP53 or ASXL1 (WHO 5th edition).
+Myelodysplastic/myeloproliferative neoplasm with SF3B1 mutation and thrombocytosis
+SF3B1 is one of the MDS_associated genes and has been used by WHO and ICC for classification of MDS along with other clinical/pathological findings. Please refer to these guidelines for detailed information. The diagnosis is based on the detection of SF3B1 mutation, and in rare cases mutations in other spliceosome genes. The most common SF3B1 mutations include p.K700E, p.H662Q, and p.K666R. The mutant allele burden is comparable to that seen in other myeloid neoplasms with ring sideroblasts. Concurrent mutations include JAK2 p.V617F in ~50% of cases, TET2, ASXL1, DNMD3A, SETBP1, SRSF2, U2AF1, ZRSR2, EZH2, IDH2, ETV6, RUNX1, CBL, CALR, and MPL. Patients diagnosed with MDS SF3B1 who acquire JAK2 p.V617F or equivalent mutations with resultant thrombocytosis may be regarded as having developed MDS/MPN SF3B1 T through clonal evolution. Among mutations common in MDS/MPN SF3B1 T, frameshift, and nonsense ASXL1 mutations may be prognostic. A proposed prognostic model based on abnormal karyotype, ASXL1 and/or SETBP1 mutations, and haemoglobin level &lt;10 g/dL stratified patients into three risk categories, with significantly different median overall survival rates (WHO 5th edition).
+Differential diagnosis
+The overall mutation profile of MDS/MPN_N is similar to that of CNL, CMML, and MDS/MPN_NOS. CSF3R mutations are distinctly more common in CNL than in MDS/MPN_N (&gt; 60% vs &lt; 20%), and SETBP1 mutations are most frequently identified in MDS/MPN_N (&gt; 30%). Hence, morphological criteria are important for distinguishing these entities (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>MDS
+SF3B1 is one of the MDS_associated genes and the mutations of this gene have been used by WHO and ICC for the classification of MDS in the context of appropriate clinical/pathological findings. Please refer to these guidelines for detailed information. 
+Please click here to use comment under “MDS”. 
+If MDS not confirmed and older patient: While these SF3B1 mutations are common in MDS, they are also observed in a subset of healthy, older individuals with clonal haematopoiesis (Sally B. Killick et al, British Journal of Haematology, 2021).
+MDS/MPN: 
+A diagnosis of MDS/MPN RS T is strongly supported by the presence of SF3B1 mutation together with a mutation in JAK2 V617F, CALR, or MPL genes (Daniel A. Arber, et al, Blood 2016).
+Myelodysplastic/myeloproliferative neoplasm with SF3B1 mutation and thrombocytosis
+SF3B1 is one of the MDS_associated genes and has been used by WHO and ICC for classification of MDS along with other clinical/pathological findings. Please refer to these guidelines for detailed information. The diagnosis is based on the detection of SF3B1 mutation, and in rare cases mutations in other spliceosome genes. The most common SF3B1 mutations include p.K700E, p.H662Q, and p.K666R. The mutant allele burden is comparable to that seen in other myeloid neoplasms with ring sideroblasts. Concurrent mutations include JAK2 p.V617F in ~50% of cases, TET2, ASXL1, DNMD3A, SETBP1, SRSF2, U2AF1, ZRSR2, EZH2, IDH2, ETV6, RUNX1, CBL, CALR, and MPL. Patients diagnosed with MDS SF3B1 who acquire JAK2 p.V617F or equivalent mutations with resultant thrombocytosis may be regarded as having developed MDS/MPN SF3B1 T through clonal evolution. Among mutations common in MDS/MPN SF3B1 T, frameshift, and nonsense ASXL1 mutations may be prognostic. A proposed prognostic model based on abnormal karyotype, ASXL1 and/or SETBP1 mutations, and haemoglobin level &lt;10 g/dL stratified patients into three risk categories, with significantly different median overall survival rates (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>CEBPA</t>
+  </si>
+  <si>
+    <t>Myeloid neoplasms with germ line DDX41 mutation is a WHO and ICC disease category.</t>
+  </si>
+  <si>
+    <r>
+      <t>ASXL1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is altered in 2% of multiple myeloma patients.</t>
+    </r>
+  </si>
+  <si>
+    <t>In ~50% of cases progressing on treatment with BCL2 inhibitors (including venetoclax), the CLL/SLL cells acquire mutations in BCL2 (disrupting drug binding site) or amplification of 1q (involving MCL1) (WHO 5th edition).
+In situ follicular B-cell neoplasm (ISFN)
+ISFN shows genetic alterations seen in the early steps of FL pathogenesis, but it does not or rarely shows other genetic features of classic FL. Similar to FL, ISFN demonstrates t(14,18)(q32,q21)/IGH::BCL2. It also shows a restricted repertoire of genetic alterations recurrently seen in FL, including BCL2, CREBBP, KMT2D and TNFRSF14 mutations and acquisition of N glycosylation sites in their rearranged IG heavy chain genes. Deletions at 1p36 encompassing the TNFRSF14 gene have also been detected (WHO 5th edition).
+Mantle cell lymphoma (MCL)
+The t(11,14)(q13,q32) leading to IGH::CCND1 rearrangement is the genetic hallmark of MCL, present in &gt;= 95% of cases. Next generation sequencing studies have shown that MCL displays a complex mutational landscape. ATM is most frequently mutated (41 to 61% of cases), followed by mutations of TP53 (14 to 31%), CCND1 (14 to 34%), KMT2D (12 to 23%), NSD2 (10 to 13%), SMARCA4 (8%), UBR5 (7 to 18%), BIRC3 (6 to 10%), NOTCH1 (5 to14%), S1PR1 (3 to 15%), and CARD11 (3 to 15%). These alterations involve genes encoding components of key signalling pathways in MCL pathogenesis, including, but not limited to, cell cycle regulation (CCND1, RB), DNA damage response (ATM, TP53), cell proliferation and apoptosis (BCL2, MYC), B cell receptor/NFkB signalling (CARD11/BIRC3/MAP3K14), and epigenetic modifiers (KMTD2D, NSD2, SMARCA4). MYC translocations and TP53 mutations are often associated with disease progression. TP53 mutational analysis may help to define a high risk MCL cohort (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>CD79b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large B-cell lymphoma with IRF4 rearrangement
+A structural variant juxtaposes the IRF4 gene next to an IG locus, leading to pathognomonic overexpression of IRF4 (MUM1). Additional structural and nucleotide variants in BCL6 (most within the IRF4 binding site) and mutations in IRF4 result in disruption of the physiological BCL6 IRF4 interaction. Losses of 17p/TP53 (25 to 39%) and gains of chromosomes 7 (26 to 45%) and 11q (35 to 40%) are recurrent, as are mutations of NFκB pathway related genes (CARD11, CD79B, MYD88) which are observed in about 35% of cases (WHO 5th edition).
+Primary large cell B-cell lymphomas (LBCL) of immune-privileged sites (IP-LBCL)
+MYD88 and CD79B hotspot mutations are highly recurrent in Primary CNS LBCL (PCNS LBCL), primary vitreoretinal LBCL (PVR LCBL) and primary testicular LBCL (PT LBCL) (WHO 5th edition). </t>
+  </si>
+  <si>
+    <t>EP300 is altered in 14% of follicular lymphoma (part of M7 FLIPI clinico genetic score) and 9% of diffuse large B cell lymphoma patients.
+Mixed phenotype acute leukaemia, B/Myeloid (MPAL-B/M)
+Mutations in genes encoding transcriptional regulators, particularly PAX5 and IKZF1 are present in the majority of cases. Other common mutations include NRAS and PTPN11, resulting in activation of the RAS signalling pathway. Mutations in epigenetic regulators are also common, and they include MLLT3, KDM6A, EP300, CREBBP, TET2, EZH2, and ASXL1 (WHO 5th edition).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diffuse large B-cell lymphoma, not otherwise specified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Among the haematological malignancies IRF4 alterations have the greatest prevalence in diffuse large B cell lymphoma, not otherwise specified (MyCancerGenome). 
+IRF4 C99R has been reported to have the greatest prevalence in B cell lymphoblastic leukaemia/lymphoma, diffuse large B cell lymphoma, not otherwise specified, classical hodgkin lymphoma, and mediastinal large B cell lymphoma having the greatest prevalence. Please correlate with other clinical/pathological findings for differential diagnosis.</t>
+    </r>
+  </si>
+  <si>
+    <t>MEF2B</t>
+  </si>
+  <si>
+    <t>NOTCH1 gene mutations in mantle cell lymphoma (MCL) have been described in about 5 to 10% of cases and are associated with significantly shorter survival rates (Silkenstedt, E. et al. (2019). J Exp Clin Cancer Res. 38(1):446).
+NOTCH1 and NOTCH2 mutations have been associated with inferior outcomes in patients with MCL (Kridel, R. et al. (2012). Blood. 119(9):1963_71, Eskelund, CW. et al. (2017). Blood. 130(17):1903_1910).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain of function CARD11 mutations occur in approximately 10% of cases of the activated B Cell-Like (ABC) subtype of diffuse large B cell lymphoma (DLBCL), but they have also been observed in other DLBCL subtypes, as well as in acute T-cell leukemia/lymphoma, Sézary syndrome, mantle cell lymphoma, and angioimmunoblastic T-cell lymphoma ((Compagno et al. 2009; da Silva Almeida et al. 2015; Kataoka et al. 2015; Wang et al. 2015; Vallois et al. 2016; Bedsaul et al. 2018))
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diffuse large B-cell lymphoma, not otherwise specified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Among the haematological malignancies IRF4 alterations have the greatest prevalence in diffuse large B cell lymphoma, not otherwise specified (MyCancerGenome). 
+IRF4 C99R has been reported to have the greatest prevalence in B cell lymphoblastic leukaemia/lymphoma, diffuse large B cell lymphoma, not otherwise specified, classical hodgkin lymphoma, and mediastinal large B cell lymphoma having the greatest prevalence. Please correlate with other clinical/pathological findings for differential diagnosis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BCOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is altered in 14% of ALL patients.</t>
+    </r>
+  </si>
+  <si>
+    <t>FBXW7</t>
+  </si>
+  <si>
+    <t>TAL1 locus is deregulated in about 20 to 30% of cases of T ALL. Other important rearrangements in T ALL involve MLLT10, KMT2A, ABL1, and NUP98. Deletions also occur in T ALL. The most important is del(9p), resulting in loss of the tumour suppressor gene CDKN2A, which occurs at a frequency of &gt;= 30%. Other tumour suppressors deleted or inactivated in T ALL include BCL11B, LEF1, WT1, NF1, ETV6, RUNX1, and GATA3, but the last three are associated with the Early T precursor lymphoblastic leukaemia / lymphoma (ETP ALL) phenotype. Signalling pathway deregulation in T ALL occurs in the NOTCH1, PI3K/AKT, JAK/STAT, RAS/MAPK, and ABL kinase pathways. Over 75% of cases show NOTCH1 pathway activation, which can be caused by activating mutations involving the extracellular heterodimerization domain and / or the C terminal PEST domain of NOTCH1 (50% of cases) and/or by loss of function mutations in FBXW7, a negative regulator of NOTCH1 (30% of cases). NOTCH1 and/or FBXW7 mutations have been associated with better clinical outcomes, while loss of heterozygosity at 6q, PTEN mutations, and KMT2D mutations have been associated with worse outcomes (WHO 5th edition).
+ZNF384 rearrangement
+ZNF384 rearrangement is a new subtype in 3 to 5% of paediatric patients and 3 to 8% of adult patients with B ALL. Overall, its prognostic impact is intermediate but varies with different partner genes. Alterations in NRAS and FLT3 occur in 60% of cases. In addition, deletions in lymphoid regulator genes, including LEF1, EBF1, CDKN2A, FBXW7, and ETV6, have also been detected in ZNF384 rearranged B ALL (Zhang, L. et al. (2022) Leukaemia. Chapter 10).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IDH1/2 (IDH1 R132C and the IDH2 R140Q) mutations in adolescents and adults with ALL were reported to influence prognosis and survival in patients with ZNF384 rearrangement. To interpret these findings, please correlate with RNA fusion studies if available. (Yasuda, T., et al, Blood 2022, 139(12), 1850–1862. https://doi.org/10.1182/blood.2021011921).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Clonal hematopoiesis of indeterminate potential (CHIP) is a premalignant state characterised by myeloid malignancy driver mutations with a variant allele fraction ≥0.02 in individuals without blood count abnormalities. CHIP increases in prevalence with age, occurring in ~10% of individuals aged &gt;70 years (Blood. 2022;140(11):1200-1228.). The most frequent mutated genes in CHIP are DNMT3A, TET2, ASXL1, TP53, PPM1D, SRSF2, GNB1, SF3B1, JAK2, CBL, GNAS, NF1, RUNX1, BCORL1, BRCC3, CUX1, ASXL2, BCOR, KRAS, PRPF8, SMC1A, IDH2, KDM6A, SETD2, CALR (Nature Medicine, VOL 27, November 2021, 1921–1927).</t>
+    </r>
+  </si>
+  <si>
+    <t>Mixed-phenotype acute leukaemia, T/myeloid
+In patients with Mixed phenotype acute leukaemia, T/myeloid, additional genetic aberrations include WT1 mutations, often co mutated with ETV6 and RUNX1 in paediatric patients and with DNMT3A and IDH2 mutations in adults. PHF6 is frequently mutated and is often associated with some degree of B lineage differentiation (WHO 5th edition).
+T-ALL
+TAL1 locus is deregulated in about 20 to 30% of cases of T ALL. Other important rearrangements in T ALL involve MLLT10, KMT2A, ABL1, and NUP98. Deletions also occur in T ALL. The most important is del(9p), resulting in loss of the tumour suppressor gene CDKN2A, which occurs at a frequency of &gt;= 30%. Other tumour suppressors deleted or inactivated in T ALL include BCL11B, LEF1, WT1, NF1, ETV6, RUNX1, and GATA3, but the last three are associated with the Early T precursor lymphoblastic leukaemia / lymphoma (ETP ALL) phenotype. Signalling pathway deregulation in T ALL occurs in the NOTCH1, PI3K/AKT, JAK/STAT, RAS/MAPK, and ABL kinase pathways. Over 75% of cases show NOTCH1 pathway activation, which can be caused by activating mutations involving the extracellular heterodimerization domain and / or the C terminal PEST domain of NOTCH1 (50% of cases) and/or by loss of function mutations in FBXW7, a negative regulator of NOTCH1 (30% of cases). NOTCH1 and/or FBXW7 mutations have been associated with better clinical outcomes, while loss of heterozygosity at 6q, PTEN mutations, and KMT2D mutations have been associated with worse outcomes (WHO 5th edition).</t>
+  </si>
+  <si>
+    <t>ASXL1 is altered in 19% of refractory anaemia with excess blasts patients. 
+Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
+  </si>
+  <si>
+    <t>PHF6 mutation supports the notion that AUL may represent a biological continuum of T/myeloid mixed-phenotype acute leukaemia and early T_precursor lymphoblastic leukaemia (WHO 5th edition).
+No diagnosis
+The highest prevalence of PHF6 frameshift variants have been reported in AML, MDS, MPN, AML with mutated NPM1, and AML with MDS_related changes. Please correlate with other clinical/pathological findings for differential diagnosis (MyCancerGenome).
+Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
+  </si>
+  <si>
+    <t>PTPN11 variants have been reported in various myeloid malignancies, including AML, MDS, MDS/MPN and PMF. Please correlate with other clinical and pathological findings for differential diagnosis and interpretation (Swoboda, D.M., et al. Leukemia 35, 286–288 (2021). 
+Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
+  </si>
+  <si>
+    <t>Activating mutations in the tyrosine kinase 2 (TK2) domain (exon 17) of the KIT gene, especially KIT p.D816V, are the molecular hallmark of systemic mastocytosis (SM) and are detected in about 90% of cases, depending on the SM subtype. 
+Detection of non_KIT mutations usually indicate (myeloid) systemic mastocytosis with an associated haematological neoplasm (SM_AHN), and some showed adverse prognostic significance (e.g., SRSF2, ASXL1, and/or RUNX1). 
+Presence of &gt;=1 mutations in genes besides KIT, including SRSF2, ASXL1, or RUNX1, have negative prognostic impact in AdvSM. However, a small subset of patients with AdvSM may show a relatively good outcome, including cases without significant cytopenias and low KIT p.D816V VAF in the absence of additional mutations, SM with atypical KIT mutations involving exons 8 to 10 (usually in patients with well differentiated systemic mastocytosis (WDSM)  pattern) or SM associated haematological neoplasm (AHN) with PDGFR rearrangement, which are highly sensitive to first generation KIT or PDGFR tyrosine kinase inhibitors, and SM AHN presenting with ISM associated with low risk AHN (e.g. essential thrombocythaemia), whenever the AHN is adequately controlled (WHO, 5th edition
+Clonal hematopoiesis of indeterminate potential (CHIP) is a premalignant state characterised by myeloid malignancy driver mutations with a variant allele fraction ≥0.02 in individuals without blood count abnormalities. CHIP increases in prevalence with age, occurring in ~10% of individuals aged &gt;70 years (Blood. 2022;140(11):1200-1228.). The most frequent mutated genes in CHIP are DNMT3A, TET2, ASXL1, TP53, PPM1D, SRSF2, GNB1, SF3B1, JAK2, CBL, GNAS, NF1, RUNX1, BCORL1, BRCC3, CUX1, ASXL2, BCOR, KRAS, PRPF8, SMC1A, IDH2, KDM6A, SETD2, CALR (Nature Medicine, VOL 27, November 2021, 1921–1927).
+Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
+  </si>
+  <si>
+    <t>Mutations in genes encoding transcriptional regulators, particularly PAX5 and IKZF1 are present in the majority of cases. Other common mutations include NRAS and PTPN11, resulting in activation of the RAS signalling pathway. Mutations in epigenetic regulators are also common, and they include MLLT3, KDM6A, EP300, CREBBP, TET2, EZH2, and ASXL1 (WHO 5th edition).
+Blastic plasmacytoid dendritic cell leukaemia
+TET2 and SRSF2 (exon1) mutations are the most common alterations in blastic plasmacytoid dendritic cell neoplasm.
+In 20% of the cases, BPDCN co exists with other myeloid malignancies, especially with CMML and therefore some of the detected mutations might be related to the coexisting leukaemia. Please correlate the results with bone marrow morphology and other clinical and pathological findings.
+Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
+  </si>
+  <si>
+    <t>U2AF1 variants have been identified in myeloid malignancies, in particular myelodysplastic syndromes (MDS), myeloproliferative neoplasms (MPN), MDS/myeloproliferative neoplasms (MDS/MPN), and secondary acute myeloid leukemia (sAML)(MyCancerGenome). Please correlate with other clinicopathological findings for differential diagnosis.
+Recent study showed 4 major genomic abnormalities in AEL patients. 1) Patients with TP53 mutations and activating mutations or gains/focal amplifications involving the EPOR (19p13), JAK2 (9p21) and ERG/EST2 (21q22), 2) Patients with NPM1 mutations accompanied with PTPN11 mutations in 50% of the cases, 3) Patients with STAG2 mutation strongly associated with KMT2A PTD and 4) patients without any of the mutations in the other 3 groups and had mainly mutations in for chromatin/histon modifications including BCOR, USP96, PHF6, U2AF1, ASXL1, RUNX1, and TET2 of which USP9X and BCOR mutations have the strongest enrichment (Blood Cancer Discov. 2022 Jul 15,bcd.21.0192.).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4086,13 +4082,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -4143,6 +4132,51 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4164,30 +4198,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4195,6 +4223,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4530,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4550,371 +4599,419 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="10" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="285" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B24" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B31" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B34" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>259</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>265</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>269</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>280</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B47" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B49" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B50" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>308</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B51" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="285" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="315" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>313</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>316</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B54" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>331</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>333</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="285" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>339</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="315" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>342</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4923,32 +5020,224 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D047D86-2DA7-40D0-AE18-DD845C71F766}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C32A0-9CE9-4632-B477-C33A3F54D1EC}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="90.109375" customWidth="1"/>
+    <col min="2" max="2" width="95.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>357</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4957,73 +5246,317 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACEB0-1D23-4D73-A7AF-61BC0573E509}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="117.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="150.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="390" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="360" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C181D1-9A1A-4B63-974F-1376CEB759F1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.21875" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5031,11 +5564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AC4A2-C3A3-47B0-98AB-490EB46276E7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5047,114 +5580,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9F24A3-EA82-4A17-B915-0BA86DD79F59}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -5172,152 +5705,152 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5325,7 +5858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5262AB9B-F395-45BD-BC48-1257F4C88EFE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5335,7 +5868,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5345,10 +5878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5366,282 +5899,382 @@
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="345" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="210" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B21" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="301.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" ht="301.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="390" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="210.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>313</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>333</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>339</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>341</v>
+        <v>237</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="369" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>342</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>356</v>
+        <v>241</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="390" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="330" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="210.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5651,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272D003-0FFA-4F1D-B7A9-9555EFF0D62B}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5672,322 +6305,370 @@
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="315.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" ht="315.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" ht="315" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="361.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="315" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="270" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="361.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="226.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="392.25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="226.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="392.25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="360" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="390" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B38" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="360" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="363" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="270" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="390" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>286</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="363" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="46" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="270" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>302</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="47" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>316</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="330" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>342</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>353</v>
+    <row r="49" spans="1:2" ht="330" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5997,87 +6678,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F97093D-988E-4644-B83D-8D3E695F3E69}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="120.44140625" customWidth="1"/>
+    <col min="2" max="2" width="102.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>330</v>
+        <v>222</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6087,10 +6774,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD634E30-2FF4-4CAE-85E8-877093FDD5DC}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6110,275 +6797,191 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>139</v>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="225" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="270" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="270" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="255.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="210.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="270" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="105.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="211.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="106.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="394.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="255.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="210.75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="286.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="165" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="225.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="105.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="211.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="106.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="394.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="300" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="135" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>308</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>313</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="315" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>333</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6387,16 +6990,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0E87CA-7F9D-46CA-9D15-8D7338F0E910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86327E5-C3AE-4491-932D-1E8E8290018D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="99.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="86.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,84 +7011,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="241.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="120.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="405" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>326</v>
+      <c r="B11" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6493,11 +7097,109 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0E87CA-7F9D-46CA-9D15-8D7338F0E910}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="99.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="345" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65405E-7754-49F8-8BF9-5636ED341878}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6515,356 +7217,128 @@
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>194</v>
+        <v>359</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="150.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>199</v>
+      <c r="A8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>244</v>
+      <c r="A11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>251</v>
+      <c r="A13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>282</v>
+        <v>249</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>317</v>
+      <c r="A16" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C32A0-9CE9-4632-B477-C33A3F54D1EC}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="135.21875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>350</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6873,218 +7347,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACEB0-1D23-4D73-A7AF-61BC0573E509}">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D047D86-2DA7-40D0-AE18-DD845C71F766}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
-    <col min="2" max="2" width="117.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="90.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="390" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="270" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>297</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>354</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D4B14-6628-4BEA-BD58-BDD2E199AB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31521ACD-8EAE-4035-A880-67B93688C458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="255" windowWidth="28230" windowHeight="15675" activeTab="11" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="-26430" yWindow="1275" windowWidth="25710" windowHeight="14310" activeTab="9" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="MPN" sheetId="3" r:id="rId3"/>
     <sheet name="Myeloma" sheetId="8" r:id="rId4"/>
     <sheet name="B lymphoid" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId6"/>
+    <sheet name="T lymphoid" sheetId="17" r:id="rId6"/>
     <sheet name="CLL" sheetId="14" r:id="rId7"/>
     <sheet name="ALL" sheetId="6" r:id="rId8"/>
     <sheet name="Histiocytic disorders" sheetId="16" r:id="rId9"/>
-    <sheet name="Generic" sheetId="7" r:id="rId10"/>
+    <sheet name="CHIP" sheetId="7" r:id="rId10"/>
     <sheet name="Other" sheetId="9" r:id="rId11"/>
     <sheet name="Caveats" sheetId="11" r:id="rId12"/>
     <sheet name="Panel" sheetId="12" r:id="rId13"/>
@@ -5023,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C32A0-9CE9-4632-B477-C33A3F54D1EC}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5493,7 +5493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C181D1-9A1A-4B63-974F-1376CEB759F1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6994,7 +6994,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\NGS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90481B5D-F5E3-4F15-9982-231C0D85ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC3CDA-8FB6-4CCD-ABE4-6B66B143B867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="330" windowWidth="25305" windowHeight="14370" firstSheet="3" activeTab="11" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="30045" yWindow="-90" windowWidth="24645" windowHeight="13425" firstSheet="3" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -66,8 +66,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={61FD660D-2DBF-40EC-B926-88247D8CDA05}</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{61FD660D-2DBF-40EC-B926-88247D8CDA05}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incorrect in WHO - PTEN is on 10q</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="421">
   <si>
     <t>Gene</t>
   </si>
@@ -108,30 +126,9 @@
     <t>Genes</t>
   </si>
   <si>
-    <t>AML/MDS</t>
-  </si>
-  <si>
     <t>MPN limited</t>
   </si>
   <si>
-    <t>Chronic B</t>
-  </si>
-  <si>
-    <t>Chronic T</t>
-  </si>
-  <si>
-    <t>Myeloma</t>
-  </si>
-  <si>
-    <t>Histiocytosis</t>
-  </si>
-  <si>
-    <t>Myeloid all genes</t>
-  </si>
-  <si>
-    <t>Haemonc</t>
-  </si>
-  <si>
     <t>CLL</t>
   </si>
   <si>
@@ -216,534 +213,10 @@
     <t>ETNK1</t>
   </si>
   <si>
-    <t>MPN/MDS</t>
-  </si>
-  <si>
-    <t>ALL/AML</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>No pathogenic/likely pathogenic variants were detected</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in the regions analysed within the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ABL1, ANKRD26, ASXL1, BCOR, BCORL1, CBL, CALR, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3 (kinase domain), GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KMT2A, KRAS, KIT, MPL, NF1, NFE2, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RUNX1, STAT3, STAT5B, SRSF2, SF3B1, SH2B3, SETBP1, STAG2, TP53, TET2, U2AF1, WT1, ZRSR2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>genes.</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;10% neoplastic cells (general)</t>
   </si>
   <si>
     <t>Please note that clonal B cells with a xx phenotype represent only xx% of the total nucleated cells according to flow cytometry.  Therefore, we cannot exclude the presence of low-level variants in this sample.</t>
-  </si>
-  <si>
-    <r>
-      <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> JAK2, CALR, MPL, CSF3R </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> KIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBL, CEBPA, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3 (tyrosine kinase domain), GATA1, GATA2, GNB1, IDH1, IDH2, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RUNX1, SETBP1, SF1, SF3B1, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, U2AF1, WT1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ZRSR2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>genes</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ABL1, ANKRD26, ASXL1, BCL2, CEBPA, CUX1, DDX41, ETV6, FBXW7, FLT3 (tyrosine kinase domain), GATA1, GATA2, HRAS, IDH1, IDH2, IKZF1, KIT, KRAS,KMT2A, MPL, MYC, NF1, NOTCH1, NPM1,  NRAS,  PAX5, PHF6, PPM1D, PTEN, RAD21, RUNX1, SF1, SMC3, SRSF2, STAG2, TP53, WT1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ZRSR2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ABL1, ETV6, FBXW7, HRAS, IKZF1, KRAS, NRAS, NOTCH1, PAX5, PTEN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TP53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BRAF, KRAS, NRAS, TP53, DIS3, FAM46C </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IRF4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ATM, BCL2, BIRC3, BTK, NOTCH1, PLCG2, SF3B1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TP53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ATM, ARID1A, BCL2, BRAF, BTK, CARD11, CCND3, CD79B, CREBBP, CXCR4, EP300, EZH2, FOXO1, KLF2, MAP2K1, MEF2B, MYD88, NOTCH1, NOTCH2, PLCG2, NRAS, KRAS, HRAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TP53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>No pathogenic/likely pathogenic variants were detected in</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> CARD11, DNMT3A, IDH2, IRF4, RHOA, STAT3, STAT5B, TET2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TP53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ARAF, BRAF, ERBB3, HRAS, KRAS, NRAS, MAP2K1, MAP3K1, PIK3CA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> PIK3CD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>genes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Genes included in the HaemOnc panel are </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ABCA1, ABL1, ACD, AKT1, ANKRD26, ARAF, ARID1A, ASXL1, ATM, ATR, ATRX, BCL11B, BCL2, BCL6, BCOR, BCORL1, BCR, BIRC3, BOD1L1, BRAF, BRCA1, BRCA2, BRCC3, BTK, CALR, CARD11, CBL, CBLB, CCND1, CCND2, CCND3, CD274, CD79B, CDKN2A, CDKN2B, CEBPA, CHEK2, CREBBP, CSF3R, CSNK1A1, CTC1, CTCF, CUX1, CXCR4, DCLRE1C, DDX41, DIS3, DKC1, DNAJC21, DNM2, DNMT3A, DNMT3B, DPYD, DUSP22, EED, ELANE, EP300, ERBB3, ETNK1, ETV6, EZH2, FAM46C, FANCL, FBXW7, FLT3, FOXO1, G6PC3, GATA1, GATA2, GFI1, GNAS, GNB1, GPRC5A, HAX1, HRAS, IDH1, IDH2, IKZF1, IL7R, IRF4,  JAGN1, JAK1, JAK2, JAK3, KDM5A, KDM6A, KIT, KLF2, KMT2A, KMT2C, KMT2D, KMT2E, KRAS, LAMB4, LMO1, LMO2, MAP2K1, MAP3K1, MECOM, MEF2B, MET, MPL, MYB, MYC, MYCN, MYD88, NCOR1, NCOR2, NF1, NF2, NFE2, NOTCH1, NOTCH2, NPM1, NRAS, NRD1, NSD1, NT5C2, NTRK1, NTRK2, NTRK3, NUDT15, NUP98, PALB2, PAX5, PDGFRA, PDS5B, PHF6, PIGA, PIK3CA, PIK3CD, PIK3R1, PLCG2, PMS1, PMS2, PPM1D, PRPF8, PTEN, PTPN11, PTPRT, RAD21, RAD50, RAD51C, RAD51D, RHOA, RIT1, RPL5, RPL10, RUNX1, SAMD9, SAMD9L, SAMHD1, SBDS, SETBP1, SF1, SF3B1, SH2B3, SMC1A, SMC3, SRSF2, STAG2, STAT3, STAT5B, SUZ12, TAL1, TERC, TERT, TET1, TET2, TINF2, TP53, TPMT, TRAF2, U2AF1, U2AF2, USP7, VPS45, WAS, WT1, XPO1, XRCC2, ZRSR2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No pathogenic/likely pathogenic variants were detected in the regions analysed within the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ANKRD26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ASXL1, ABL1, BCL2, BCOR, BCORL1, CBL, CSF3R, CUX1, CEBPA, DDX41, DNMT3A, ETNK1, ETV6, EZH2,FLT3 (tyrosine kinase domain), GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, CALR, KIT, KMT2A, KRAS, MPL, MYC, NFE2, NF1, NRAS, NPM1, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RUNX1, STAT3, STAT5B, SETBP1, SF1, SF3B1, SMC3, STAG2, SH2B3, SRSF2, TET2, TP53, U2AF1, WT1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ZRSR2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>genes.</t>
-    </r>
-  </si>
-  <si>
-    <t>MPN limited (negative)</t>
   </si>
   <si>
     <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the JAK2, CALR, MPL, CSF3R and KIT genes.
@@ -790,12 +263,6 @@
     <t>Del(11q), has been detected in 10 to 20% of CLL patients, and removes the ATM gene (WHO 5th edition).</t>
   </si>
   <si>
-    <t>Do not report (see caveat)</t>
-  </si>
-  <si>
-    <t>Focal copy number loss of chromosome 13q was detected, encompassing the RB1 gene. Deletion of RB1 is a frequent finding in CLL and usually associated with del(13q). However, as the current NGS panel lacks probe coverage for the DLEU1/2 genes, it is not possible to determine the full extent of the 13q copy number loss. If clinically relevant, further characterisation using an orthogonal method is recommended before interpretation.</t>
-  </si>
-  <si>
     <t>CNV analysis detected multiple copy number gains and/or copy number losses, suggestive of genomic complexity. Genomic complexity is an independent negative prognostic marker in CLL, particularly for ≥ 5 copy number aberrations in TP53 wildtype cases (WHO 5th ed, ERIC 2022).</t>
   </si>
   <si>
@@ -832,10 +299,6 @@
     <t>CLL &lt;10% infiltration, no FISH activation</t>
   </si>
   <si>
-    <t>No pertinent (tier 1 or tier 2) copy number aberrations were detected in this sample. 
-This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2). In addition, the current NGS panel does not have probe coverage for the DLEU1/2 genes. As a result, any copy number aberrations affecting the chromosome 13q region cannot be fully characterised.</t>
-  </si>
-  <si>
     <t>As the percentage neoplastic cell content in this sample is &lt;40% by immunophenotyping we cannot exclude the presence of copy number variants. Targeted FISH testing for TP53/ATM has been activated.</t>
   </si>
   <si>
@@ -849,9 +312,6 @@
   </si>
   <si>
     <t>This finding is below the validated threshold for this assay, which may be due to low neoplastic cell content or the presence of subclonal populations. If clinically indicated, validation of this finding using an orthogonal method is recommended before clinical interpretation.</t>
-  </si>
-  <si>
-    <t>This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2). In addition, the current NGS panel does not have probe coverage for the DLEU1/2 genes. As a result, any copy number aberrations affecting the chromosome 13q region cannot be fully characterised.</t>
   </si>
   <si>
     <t>As the neoplastic cell content is &lt;10%, which is below the sensitivity for the FISH investigation, targeted FISH studies have not been activated. Please send a repeat sample if indicated.</t>
@@ -1080,11 +540,6 @@
     <t xml:space="preserve">Myeloid neoplasms with germline GATA2 mutation is an ICC disease category and encompassed by the WHO 5th Edition category of myeloid neoplasms associated with germline predisposition. 
 Please note that this assay cannot exclude the germline origin for the GATA2 c.xxx p.(xxx) variant. Identification of a germline predisposition may have implications for patient management including donor selection for allogeneic transplantation. Referral to clinical genetics service for family history and further assessment is recommended.
 </t>
-  </si>
-  <si>
-    <t>Somatic IDH1 mutations occur in approximately 8% of AML cases, with higher prevalence in older patients (DOI: https://doi.org/10.1038/s41408-021-00497-1). In patients receiving less-intensive therapy, ELN 2024 classifies AML with mutated IDH1 (and TP53 wild-type) as favourable risk. Please refer to current NICE guidelines for therapeutic indications.
-AML with NPM1
-IDH1 mutations frequently cooccur with NPM1 mutated AML (DOI: 10.1182/bloodadvances.2022008282).</t>
   </si>
   <si>
     <t xml:space="preserve">Somatic IDH2 mutations occur in approximately 12% of AML cases, with increased prevalence in elderly patients (DOI: https://doi.org/10.1038/s41408-021-00497-1). 
@@ -1610,11 +1065,6 @@
   </si>
   <si>
     <t>STAT3/STAT5B variants are commonly associated with clonal T-cell proliferations (e.g. T-cell large granular lymphocytic leukaemia) and, when identified in the context of a myeloid neoplasm, may indicate the presence of a subclinical clonal T-cell population rather than a primary myeloid driver. Please correlate with clinical, morphological, immunophenotypic and T-cell clonality findings (doi: https://doi.org/10.1182/bloodadvances.2022008192 and DOI: 10.1182/blood-2013-04-494930).</t>
-  </si>
-  <si>
-    <t>TET2 is frequently comutated in MDS (DOI: DOI: 10.1056/EVIDoa220000).
-While TET2 alterations are common in myelodysplastic syndromes and other myeloid malignancies, they are also observed in a subset of healthy, older individuals with clonal haematopoiesis. Please correlate with other clinical and pathological findings.
-TET2 is frequently altered in MDS/MPN cases (WHO 5th Edition).</t>
   </si>
   <si>
     <t>U2AF1 mutations are reported in MDS, please refer to the IPSS-M for prognostic indications (DOI: 10.1056/EVIDoa2200008).</t>
@@ -1802,15 +1252,6 @@
     <t>PIK3CD</t>
   </si>
   <si>
-    <t>CSFR1*</t>
-  </si>
-  <si>
-    <t>*not mandated on the national genomic test directory</t>
-  </si>
-  <si>
-    <t>Hotspots</t>
-  </si>
-  <si>
     <t>Pathogenic variants in BRAF, most commonly p.V600E, are frequently detected in **Langerhans cell histiocytosis (LCH) and Erdheim-Chester disease (ECD)**. This alteration leads to constitutive activation of the MAPK pathway. Identification of a BRAF p.V600E mutation supports a diagnosis of clonal histiocytic neoplasm in the appropriate clinical and histopatholgical context.
 *delete as appropriate</t>
   </si>
@@ -1824,9 +1265,6 @@
   </si>
   <si>
     <t>Rare activating ARAF mutations have been reported in histiocytic neoplasms, particularly in ECD. Like BRAF and MAP2K1, ARAF acts within the MAPK pathway.</t>
-  </si>
-  <si>
-    <t>Mutations or rearrangements in CSF1R have been implicated in a subset of histiocytic neoplasms and are more commonly associated with non-LCH histiocytoses</t>
   </si>
   <si>
     <r>
@@ -2107,18 +1545,6 @@
     <t xml:space="preserve">NRAS mutations been reported infrequently in non-Hodkin lymphoma cases (doi: 10.1073/pnas.85.23.9268). </t>
   </si>
   <si>
-    <t xml:space="preserve">TP53 variants are frequently reported in B-NHL with a more aggressive disease course (DOI: 10.1002/ijc.30838).
-MCL
-TP53 is recurrently altered in mantle cell lymphoma and often associated with disease progression (WHO 5th Edition).
-DLBCL
-TP53 variants have been associated with pool outcomes in DLBCL (DOI: 10.1182/bloodadvances.2023011384).
-SMZL
-TP53 variants have been reported infrequently in SMZL and associated with a poorer outcome (DOI: 10.1158/1078-0432.CCR-14-2759).
-LPL
-TP53 variants have been reported in LPL and associated with a poorer outcome (DOI: 10.1182/blood-2024-211193).
-</t>
-  </si>
-  <si>
     <t>CARD11 variants have been reported in peripheral T cell lymphomas (PTCL), adult T cell leukaemia/lymphoma (ATL), cutaneous T cell lymphoma (CTCL) and Sézary syndrome (DOI: 10.1182/blood-2016-02-698977).</t>
   </si>
   <si>
@@ -2214,6 +1640,286 @@
   <si>
     <t>Region</t>
   </si>
+  <si>
+    <t xml:space="preserve">TP53 variants are frequently reported in B-NHL with a more aggressive disease course (DOI: 10.1002/ijc.30838).
+MCL
+TP53 is recurrently altered in mantle cell lymphoma and often associated with disease progression (WHO 5th Edition).
+DLBCL
+TP53 variants have been associated with poor outcomes in DLBCL (DOI: 10.1182/bloodadvances.2023011384).
+SMZL
+TP53 variants have been reported infrequently in SMZL and associated with a poorer outcome (DOI: 10.1158/1078-0432.CCR-14-2759).
+LPL
+TP53 variants have been reported in LPL and associated with a poorer outcome (DOI: 10.1182/blood-2024-211193).
+</t>
+  </si>
+  <si>
+    <t>CBFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBFB in-frame insertions have been reported as a rare cause of AML in teenagers and young adults, particularly GDXY amino acid sequence change at position D87 (DOI: 10.1182/blood.2022017874). </t>
+  </si>
+  <si>
+    <t>UBTF</t>
+  </si>
+  <si>
+    <t>Recurrent exon 13 tandem duplications (TD) in UBTF have emerged as a major subtype-defining genomic alteration in paediatric AML that is associated with poor prognosis and has also recently been reported in 1.2% of all individuals over 18 years of age (DOI: 10.1182/blood.2023021359).</t>
+  </si>
+  <si>
+    <t>UBA1</t>
+  </si>
+  <si>
+    <t>UBA1 variants are reported in VEXAS syndrome. Over 90% of cases involve substitutions at the methionine 41 (p.Met41) residue of the UBA1 gene (DOI: 10.1182/blood.2023023723).</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>IDH3 variants are most frequently reported in MYC translocation positive high-grade adult and paediatric tumours, including in BL (DOI: 10.3324/haematol.2016.156885).</t>
+  </si>
+  <si>
+    <t>PDCD1LG2</t>
+  </si>
+  <si>
+    <t>Amplification of PDCD1LG2 has been detected across several tumour types including Hodgkin's lymphoma and mediastinal large B-cell lymphoma (DOI: 10.1182/blood-2022-165060).</t>
+  </si>
+  <si>
+    <t>STAT6</t>
+  </si>
+  <si>
+    <t>Activating mutations in STAT6 are reported in FL, transformed FL, DLBCL and various other B cell lymphomas (DOI: 10.1038/s41375-025-02525-6).</t>
+  </si>
+  <si>
+    <t>TCF3</t>
+  </si>
+  <si>
+    <t>TCF3 variants are recurrent in BL but have also been reported in other B-NHL cases (DOI: 10.1080/15476286.2020.1772559).</t>
+  </si>
+  <si>
+    <t>TNFAIP3</t>
+  </si>
+  <si>
+    <t>TNFAIP3 variants have been reported in B-cell lymphomas including MZL, DLBCL and MALT lymphomas (DOI: 10.18632/oncotarget.14928).</t>
+  </si>
+  <si>
+    <t>TNFRSF14</t>
+  </si>
+  <si>
+    <t>TNFRSF14 variants are reported in germinal center (GC)-derived B cell lymphomas, particularly FL (DOI: 10.1182/blood-2015-10-679191).</t>
+  </si>
+  <si>
+    <t>FYN</t>
+  </si>
+  <si>
+    <t>FYN variants have been reported in PTCL (DOI: 10.1038/ng.2873).</t>
+  </si>
+  <si>
+    <t>JAK1</t>
+  </si>
+  <si>
+    <t>JAK1 mutations are reported in several T cell lymphomas including CTCL and have been reported as potential therapeutic targets (DOI: 10.3324/haematol.2015.132837).</t>
+  </si>
+  <si>
+    <t>JAK3 mutations are reported in several T cell lymphomas including CTCL and have been reported as potential therapeutic targets (DOI: 10.3324/haematol.2015.132837).</t>
+  </si>
+  <si>
+    <t>JAK3</t>
+  </si>
+  <si>
+    <t>PLCG1</t>
+  </si>
+  <si>
+    <t>PLCG1 is reported to be the most frequently altered gene in ATL and is also reported in cutaneous T cell lymphomas (DOI: 10.1016/j.bbadis.2022.166601).</t>
+  </si>
+  <si>
+    <t>POT1</t>
+  </si>
+  <si>
+    <t>POT1 variants have been reported in CTCL (DOI: 10.1016/j.celrep.2016.05.008).</t>
+  </si>
+  <si>
+    <t>SETD2</t>
+  </si>
+  <si>
+    <t>SETD2 variants are the most common genetic changes in MEITL and a major driver in HSTL (DOI: 10.1038/ncomms12602).</t>
+  </si>
+  <si>
+    <t>VAV1</t>
+  </si>
+  <si>
+    <t>VAV1 variants have been reported in angioimmunoblastic T-cell lymphoma (AITL) and nodal PTCL with T-follicular helper (Tfh) phenotype (PTCL-Tfh) (DOI: 10.1016/j.celrep.2016.05.008).</t>
+  </si>
+  <si>
+    <t>CSF1R</t>
+  </si>
+  <si>
+    <t>Mutations or rearrangements in CSF1R have been implicated in a subset of histiocytic neoplasms and are more commonly associated with non-LCH histiocytoses (DOI: 10.1182/blood-2018-99-114248).</t>
+  </si>
+  <si>
+    <t>Somatic IDH1 mutations occur in approximately 8% of AML cases, with higher prevalence in older patients (DOI: 10.1038/s41408-021-00497-1). In patients receiving less-intensive therapy, ELN 2024 classifies AML with mutated IDH1 (and TP53 wild-type) as favourable risk. Please refer to current NICE guidelines for therapeutic indications.
+AML with NPM1
+IDH1 mutations frequently cooccur with NPM1 mutated AML (DOI: 10.1182/bloodadvances.2022008282).</t>
+  </si>
+  <si>
+    <t>TET2 is frequently comutated in MDS (DOI: 10.1056/EVIDoa220000).
+While TET2 alterations are common in myelodysplastic syndromes and other myeloid malignancies, they are also observed in a subset of healthy, older individuals with clonal haematopoiesis. Please correlate with other clinical and pathological findings.
+TET2 is frequently altered in MDS/MPN cases (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t>Del(13q) occurs in 50-60% of CLL patients and removes the DLEU2-miR-15-16 cluster (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focal copy number loss of the RB1 gene was detected. </t>
+  </si>
+  <si>
+    <t>This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2).</t>
+  </si>
+  <si>
+    <t>No pertinent (tier 1 or tier 2) copy number aberrations were detected in this sample. 
+This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2).</t>
+  </si>
+  <si>
+    <t>SMZL</t>
+  </si>
+  <si>
+    <t>7q-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of 7q31-32 is found in around 30% of SMZL cases and rarely reported in other types of B-cell lymphoma/leukemia (WHO 5th Edition). </t>
+  </si>
+  <si>
+    <t>MZL (all types)</t>
+  </si>
+  <si>
+    <t>trisomy 3, 18</t>
+  </si>
+  <si>
+    <t>Co-occurrence of trisomies of chromosomes 3 and 18 is observed in about 25% of cases of across the three marginal zone lymphoma entities (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>6q-</t>
+  </si>
+  <si>
+    <t>Clonal deletions of chromosome 6, targeting regions 6q21-q25, are found in 40–50% of patients with WM and appear to be exclusively associated with CXCR4 mutations in treatment-naïve patients (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>1p</t>
+  </si>
+  <si>
+    <t>Deletions of chromosome 1p have been reported in FL (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t>Atypical CLL</t>
+  </si>
+  <si>
+    <t>trisomy 12</t>
+  </si>
+  <si>
+    <t>Trisomy 12 may support a diagnosis of atypical CLL in the correct clinical context (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t>T-PLL</t>
+  </si>
+  <si>
+    <t>11q del</t>
+  </si>
+  <si>
+    <t>Deletions of or missense mutations at the ataxia telangiectasia mutated (ATM) locus at 11q23 are found in up to 80% to 90% of T-PLL cases and are considered minor criteria for establishing a diagnosis of T-PLL (DOI: 10.1182/blood.2019000402).</t>
+  </si>
+  <si>
+    <t>17p-</t>
+  </si>
+  <si>
+    <t>Deletions of the TP53 gene are observed in approximately 31% of T-PLL cases (DOI: 10.1182/blood.2019000402).</t>
+  </si>
+  <si>
+    <t>trisomy 8</t>
+  </si>
+  <si>
+    <t>Abnormalities of chromosome 8 are seen in 70 to 80% of T-PLL cases (WHO 5th Edition).</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>CNV analysis showed a complex profile. Deletions in 12p13 and 22q , gains in 8q24 (MYC) and abnormalities of chromosomes 5p, 6, and 17  have also been described in T-PLL (WHO 5th edition)</t>
+  </si>
+  <si>
+    <t>PTCL NOS</t>
+  </si>
+  <si>
+    <t>17p-, 9p- (CDKN2A), 10p- (PTEN)</t>
+  </si>
+  <si>
+    <t>Copy-number abnormalities including 17p deletion (TP53), 9p deletion (CDKN2A), and heterozygous 10q deletion (PTEN) are usually associated with PTCL-GATA3 molecular subtype (WHO 5th Edition). Deletion of TP53 and CDKN2A have been associated with poor prognosis.</t>
+  </si>
+  <si>
+    <t>CHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variants in [insert detected gene(s)] are recurrently identified in clonal haematopoiesis (CHIP) and may also be seen in clonal cytopenia of undetermined significance (CCUS) (WHO 5th Edition). Interpretation requires correlation with the degree and persistence of cytopenia, bone marrow morphology, and overall clinicopathologic findings to determine whether criteria for a defined myeloid neoplasm are met.
+Gene list: ASXL1, BCOR, BCORL1, BRAF, BRCC3, CALR, CBL, CEBPA, CREBBP, CSF1R, CSF3R, CTCF, CUX1, DNMT3A, ETV6, EZH2, GATA2, GNB1, GNAS, IDH1, IDH2, JAK2, JAK3, KIT, KMT2A, KRAS, MPL, MYD88, NOTCH1, NRAS, PHF6, PPM1D, PTEN, PTPN11, RAD21, RUNX1, SETBP1, SF1, SF3B1, SMC1A, SMC3, SRSF2, STAG2, STAT3, TET2, TP53, U2AF1, WT1, ZRSR2.
+</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBFB, CBL, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3, GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NFE2, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RHOA, RUNX1, SETBP1, SF1, SF3B1, SH2B3, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, UBA1, U2AF1, WT1, ZRSR2  genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ETV6, FBXW7, HRAS, IKZF1, KRAS, NOTCH1, NRAS, NUDT15, PAX5, PTEN, TP53, TPMT  genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ATM, ARID1A, BCL2, BRAF, BTK, CARD11, CCND3, CD79B, CREBBP, CXCR4, EP300, EZH2, FOXO1, HRAS, JAK1, JAK3, KLF2, KRAS, MAP2K1, MEF2B, MYD88, NOTCH1, NOTCH2, NRAS, PLCG2, TP53, ID3, PDCD1LG2, STAT6, TCF3, TNFAIP3, TNFRSF14 genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ATM, CARD11, DNMT3A, FYN, IDH2, IRF4, JAK1, JAK3, PLCG1, POT1, RHOA, SETD2, STAT3, STAT5B, TET2, TP53, VAV1 genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ARID1A, ATM, BCL2, BRAF, BTK, CARD11, CCND3, CD79B, CREBBP, CXCR4, DNMT3A, EP300, EZH2, FOXO1, FYN, HRAS, ID3, IDH2, IRF4, JAK1, JAK3, KLF2, KRAS, MAP2K1, MEF2B, MYD88, NOTCH1, NOTCH2, NRAS, PDCD1LG2, PLCG1, PLCG2, POT1, RHOA, SETD2, STAT3, STAT5B, STAT6, TCF3, TET2, TNFAIP3, TNFRSF14, TP53, VAV1 genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ATM, BCL2, BIRC3, BTK, NOTCH1, PLCG2, SF3B1, TP53 genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the BRAF, DIS3, TENT5C, IRF4, KRAS, NRAS, TP53 genes.</t>
+  </si>
+  <si>
+    <t>ALLv4.0</t>
+  </si>
+  <si>
+    <t>Myelomav4.0</t>
+  </si>
+  <si>
+    <t>CLLv3.0</t>
+  </si>
+  <si>
+    <t>ChronicBlymphoidv4.0</t>
+  </si>
+  <si>
+    <t>chronicTlymphoidv4.0</t>
+  </si>
+  <si>
+    <t>ChronicBandTlymphoidV2.0</t>
+  </si>
+  <si>
+    <t>Myeloid panelv1.0</t>
+  </si>
+  <si>
+    <t>Histiocytosisv4.0</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ARAF, BRAF, CSF1R, ERBB3, HRAS, KRAS, MAP2K1, MAP3K1, NRAS, PIK3CA, PIK3CD genes.</t>
+  </si>
+  <si>
+    <t>AMLandALLv4.0</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBFB, CBL, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FBXW7, FLT3, GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NFE2, NPM1, NOTCH1, NRAS, NUDT15, PAX5, PHF6, PPM1D, PRPF8, PTEN, PTPN11, RAD21, RHOA, RUNX1, SETBP1, SF1, SF3B1, SH2B3, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, TPMT, U2AF1, UBA1, WT1, ZRSR2 genes.</t>
+  </si>
 </sst>
 </file>
 
@@ -2227,13 +1933,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2269,19 +1968,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2296,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2304,40 +2003,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2349,8 +2039,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2701,404 +2397,428 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C28" dT="2025-10-24T14:51:55.67" personId="{E177F675-2BF7-4D34-B125-6F3DDBFD449B}" id="{61FD660D-2DBF-40EC-B926-88247D8CDA05}">
+    <text>Incorrect in WHO - PTEN is on 10q</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="126.21875" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="126.21875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="167.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="333" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="285" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="36" spans="1:2" ht="345" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="167.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="333" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="41" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="285" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="345" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="195" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3108,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C181D1-9A1A-4B63-974F-1376CEB759F1}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3122,58 +2842,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3183,10 +2911,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AC4A2-C3A3-47B0-98AB-490EB46276E7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3203,108 +2931,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>415</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>412</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>411</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>419</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3313,11 +3017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9F24A3-EA82-4A17-B915-0BA86DD79F59}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9F24A3-EA82-4A17-B915-0BA86DD79F59}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3328,626 +3032,742 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:A27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5665B4-55C5-4810-AFEE-9F27B311E8F1}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="110.44140625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="110.44140625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="369" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="11" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="270" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="369" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3959,410 +3779,410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272D003-0FFA-4F1D-B7A9-9555EFF0D62B}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="96.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="96.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="270" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="270" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="270" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="45" spans="1:3" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="46" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="270" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="270" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="195" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="195" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="270" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="180" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4380,74 +4200,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="68.88671875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="68.88671875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>352</v>
+      <c r="B2" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>289</v>
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>362</v>
+      <c r="A4" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>361</v>
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>360</v>
+      <c r="A7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>353</v>
+      <c r="A8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4457,209 +4277,257 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD634E30-2FF4-4CAE-85E8-877093FDD5DC}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="99.6640625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="99.6640625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>327</v>
+      <c r="B2" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="240" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4669,89 +4537,145 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86327E5-C3AE-4491-932D-1E8E8290018D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="69.77734375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>291</v>
+      <c r="B1" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>41</v>
+      <c r="A2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
+      <c r="A3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>351</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4763,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0E87CA-7F9D-46CA-9D15-8D7338F0E910}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4784,8 +4708,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>292</v>
+      <c r="B2" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -4793,56 +4717,56 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>266</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="405" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>298</v>
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4855,109 +4779,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65405E-7754-49F8-8BF9-5636ED341878}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="112.44140625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="112.44140625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>300</v>
+      <c r="B2" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>301</v>
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="270" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>302</v>
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>303</v>
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="375" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>304</v>
+      <c r="A7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="345" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>305</v>
+      <c r="A8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="225" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>308</v>
+      <c r="A9" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>306</v>
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="345" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>305</v>
+      <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="210" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>145</v>
+      <c r="A12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4967,112 +4891,105 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D047D86-2DA7-40D0-AE18-DD845C71F766}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="10.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>319</v>
+      <c r="B2" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>319</v>
+      <c r="A5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>311</v>
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>312</v>
+      <c r="A10" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\NGS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\NGS\Documents\Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC3CDA-8FB6-4CCD-ABE4-6B66B143B867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA40FE-9CE3-4ABE-B19F-A227B02A93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30045" yWindow="-90" windowWidth="24645" windowHeight="13425" firstSheet="3" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="28710" yWindow="345" windowWidth="24615" windowHeight="14175" firstSheet="1" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -1867,9 +1867,6 @@
 </t>
   </si>
   <si>
-    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBFB, CBL, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3, GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NFE2, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RHOA, RUNX1, SETBP1, SF1, SF3B1, SH2B3, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, UBA1, U2AF1, WT1, ZRSR2  genes.</t>
-  </si>
-  <si>
     <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ETV6, FBXW7, HRAS, IKZF1, KRAS, NOTCH1, NRAS, NUDT15, PAX5, PTEN, TP53, TPMT  genes.</t>
   </si>
   <si>
@@ -1919,13 +1916,16 @@
   </si>
   <si>
     <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBFB, CBL, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FBXW7, FLT3, GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NFE2, NPM1, NOTCH1, NRAS, NUDT15, PAX5, PHF6, PPM1D, PRPF8, PTEN, PTPN11, RAD21, RHOA, RUNX1, SETBP1, SF1, SF3B1, SH2B3, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, TPMT, U2AF1, UBA1, WT1, ZRSR2 genes.</t>
+  </si>
+  <si>
+    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBFB, CBL, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3, GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NFE2, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RHOA, RUNX1, SETBP1, SF1, SF3B1, SH2B3, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, UBA1, UBTF, U2AF1, WT1, ZRSR2  genes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1967,12 +1967,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2409,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57B5312-BC96-450F-B6E5-702AE74DB434}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2825,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2914,7 +2908,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2941,74 +2935,74 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4539,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86327E5-C3AE-4491-932D-1E8E8290018D}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\NGS\Documents\Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA40FE-9CE3-4ABE-B19F-A227B02A93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97634C43-08D6-4375-A9C9-468ECC02B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28710" yWindow="345" windowWidth="24615" windowHeight="14175" firstSheet="1" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
@@ -1882,9 +1882,6 @@
     <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ATM, BCL2, BIRC3, BTK, NOTCH1, PLCG2, SF3B1, TP53 genes.</t>
   </si>
   <si>
-    <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the BRAF, DIS3, TENT5C, IRF4, KRAS, NRAS, TP53 genes.</t>
-  </si>
-  <si>
     <t>ALLv4.0</t>
   </si>
   <si>
@@ -1919,6 +1916,10 @@
   </si>
   <si>
     <t>No pathogenic/likely pathogenic variants were detected in the regions analysed within the ABL1, ANKRD26, ASXL1, BCL2, BCOR, BCORL1, CALR, CBFB, CBL, CEBPA, CSF3R, CUX1, DDX41, DNMT3A, ETNK1, ETV6, EZH2, FLT3, GATA1, GATA2, GNB1, HRAS, IDH1, IDH2, IKZF1, JAK2, KIT, KMT2A, KRAS, MPL, MYC, NF1, NFE2, NPM1, NRAS, PHF6, PPM1D, PRPF8, PTPN11, RAD21, RHOA, RUNX1, SETBP1, SF1, SF3B1, SH2B3, SMC3, SRSF2, STAG2, STAT3, STAT5B, TET2, TP53, UBA1, UBTF, U2AF1, WT1, ZRSR2  genes.</t>
+  </si>
+  <si>
+    <t>Anaysis on CD138+ cells:
+No pathogenic/likely pathogenic variants were detected in the regions analysed within the BRAF, DIS3, TENT5C, IRF4, KRAS, NRAS, TP53 genes.</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2909,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2935,15 +2936,15 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>404</v>
@@ -2951,7 +2952,7 @@
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>405</v>
@@ -2959,7 +2960,7 @@
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>406</v>
@@ -2967,23 +2968,23 @@
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>403</v>
@@ -2991,18 +2992,18 @@
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4272D003-0FFA-4F1D-B7A9-9555EFF0D62B}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/NGS_comments_automation.xlsx
+++ b/NGS_comments_automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MOLECULAR DIAGNOSTICS\Clinical Scientists\Training Records\Brittany\NGS\Documents\Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97634C43-08D6-4375-A9C9-468ECC02B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54814224-581F-4218-81BB-2753C79B15A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="345" windowWidth="24615" windowHeight="14175" firstSheet="1" activeTab="10" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
+    <workbookView xWindow="28710" yWindow="345" windowWidth="24615" windowHeight="14175" firstSheet="2" activeTab="11" xr2:uid="{E8EAE7A0-7C8C-4249-A16E-D20591EF97F9}"/>
   </bookViews>
   <sheets>
     <sheet name="AML" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>CNV detected (other) that doesn't reach threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLL reporting caveat (applied to all cases) </t>
   </si>
   <si>
     <t>CLL &lt;10% infiltration, no FISH activation</t>
@@ -1771,13 +1768,6 @@
     <t xml:space="preserve">Focal copy number loss of the RB1 gene was detected. </t>
   </si>
   <si>
-    <t>This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2).</t>
-  </si>
-  <si>
-    <t>No pertinent (tier 1 or tier 2) copy number aberrations were detected in this sample. 
-This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2).</t>
-  </si>
-  <si>
     <t>SMZL</t>
   </si>
   <si>
@@ -1920,6 +1910,16 @@
   <si>
     <t>Anaysis on CD138+ cells:
 No pathogenic/likely pathogenic variants were detected in the regions analysed within the BRAF, DIS3, TENT5C, IRF4, KRAS, NRAS, TP53 genes.</t>
+  </si>
+  <si>
+    <t>No pertinent (tier 1 or tier 2) copy number aberrations were detected in this sample. 
+This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2). CNV analysis for chronic lymphocytic leukaemia (CLL) includes chromosome 11, 12, 13, and the short arm of chromosome 17 (17p).</t>
+  </si>
+  <si>
+    <t>This report includes only copy number aberrations pertinent to CLL (tier 1 or tier 2). CNV analysis for chronic lymphocytic leukaemia (CLL) includes chromosome 11, 12, 13, and the short arm of chromosome 17 (17p).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLL reporting caveat (applied to all cases with a CNV) </t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -2445,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.2">
@@ -2453,15 +2453,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.2">
@@ -2469,15 +2469,15 @@
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
@@ -2485,7 +2485,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="255" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="167.25" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.2">
@@ -2525,295 +2525,295 @@
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="180" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="333" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="285" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="345" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -2908,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AC4A2-C3A3-47B0-98AB-490EB46276E7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2936,74 +2936,74 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3015,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9F24A3-EA82-4A17-B915-0BA86DD79F59}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3027,10 +3027,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -3077,7 +3077,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3165,7 +3165,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -3187,7 +3187,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -3198,18 +3198,18 @@
         <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>420</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -3217,114 +3217,114 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -3373,7 +3373,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -3389,15 +3389,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -3405,7 +3405,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3413,7 +3413,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -3421,7 +3421,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -3437,7 +3437,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
@@ -3453,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
@@ -3461,308 +3461,308 @@
         <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="285" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="369" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -3824,15 +3824,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.2">
@@ -3840,15 +3840,15 @@
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
@@ -3896,288 +3896,288 @@
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="180" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4213,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4221,48 +4221,48 @@
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -4306,7 +4306,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
@@ -4322,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4330,7 +4330,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -4338,15 +4338,15 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.2">
@@ -4354,7 +4354,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.2">
@@ -4362,7 +4362,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.2">
@@ -4370,7 +4370,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
@@ -4378,151 +4378,151 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
@@ -4566,111 +4566,111 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4704,7 +4704,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" s="11"/>
     </row>
@@ -4721,7 +4721,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="405" x14ac:dyDescent="0.2">
@@ -4729,39 +4729,39 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4798,85 +4798,85 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="270" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="375" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="345" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="225" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="345" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="210" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4912,75 +4912,75 @@
         <v>10</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
